--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.0950209742867</v>
+        <v>447.701435140414</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.3330116304209</v>
+        <v>612.5648547524646</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.9222820993965</v>
+        <v>554.1025247550618</v>
       </c>
       <c r="AD2" t="n">
-        <v>340095.0209742867</v>
+        <v>447701.435140414</v>
       </c>
       <c r="AE2" t="n">
-        <v>465333.0116304209</v>
+        <v>612564.8547524646</v>
       </c>
       <c r="AF2" t="n">
         <v>7.095200010043573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>420922.2820993965</v>
+        <v>554102.5247550618</v>
       </c>
     </row>
     <row r="3">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.8949969288835</v>
+        <v>384.6787244058818</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.5423917120838</v>
+        <v>526.3344015597082</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.0786967837888</v>
+        <v>476.1017849898212</v>
       </c>
       <c r="AD3" t="n">
-        <v>286894.9969288835</v>
+        <v>384678.7244058818</v>
       </c>
       <c r="AE3" t="n">
-        <v>392542.3917120838</v>
+        <v>526334.4015597082</v>
       </c>
       <c r="AF3" t="n">
         <v>8.063701184917072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.46759259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>355078.6967837887</v>
+        <v>476101.7849898211</v>
       </c>
     </row>
     <row r="4">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.5475168738566</v>
+        <v>351.3643987397817</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.9148983136433</v>
+        <v>480.7522714590298</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.8058273168105</v>
+        <v>434.8699494110299</v>
       </c>
       <c r="AD4" t="n">
-        <v>253547.5168738566</v>
+        <v>351364.3987397817</v>
       </c>
       <c r="AE4" t="n">
-        <v>346914.8983136433</v>
+        <v>480752.2714590298</v>
       </c>
       <c r="AF4" t="n">
         <v>8.797332010465326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>313805.8273168105</v>
+        <v>434869.9494110299</v>
       </c>
     </row>
     <row r="5">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.9290371598877</v>
+        <v>323.991563174245</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.8085170965354</v>
+        <v>443.2995502339858</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.0001252895372</v>
+        <v>400.9916633344798</v>
       </c>
       <c r="AD5" t="n">
-        <v>235929.0371598878</v>
+        <v>323991.563174245</v>
       </c>
       <c r="AE5" t="n">
-        <v>322808.5170965354</v>
+        <v>443299.5502339858</v>
       </c>
       <c r="AF5" t="n">
         <v>9.27887046915698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>292000.1252895371</v>
+        <v>400991.6633344798</v>
       </c>
     </row>
     <row r="6">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.3376838403009</v>
+        <v>307.5785341953862</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.7899366946957</v>
+        <v>420.8425198933764</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.8422655435891</v>
+        <v>380.6779004509381</v>
       </c>
       <c r="AD6" t="n">
-        <v>229337.6838403009</v>
+        <v>307578.5341953862</v>
       </c>
       <c r="AE6" t="n">
-        <v>313789.9366946957</v>
+        <v>420842.5198933764</v>
       </c>
       <c r="AF6" t="n">
         <v>9.708878481691826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.16898148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>283842.2655435891</v>
+        <v>380677.9004509381</v>
       </c>
     </row>
     <row r="7">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>214.4011716202988</v>
+        <v>292.7093417830883</v>
       </c>
       <c r="AB7" t="n">
-        <v>293.3531417228864</v>
+        <v>400.4978348523982</v>
       </c>
       <c r="AC7" t="n">
-        <v>265.3559296006609</v>
+        <v>362.274883596326</v>
       </c>
       <c r="AD7" t="n">
-        <v>214401.1716202988</v>
+        <v>292709.3417830883</v>
       </c>
       <c r="AE7" t="n">
-        <v>293353.1417228865</v>
+        <v>400497.8348523982</v>
       </c>
       <c r="AF7" t="n">
         <v>1.004721654264245e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>265355.9296006609</v>
+        <v>362274.883596326</v>
       </c>
     </row>
     <row r="8">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>212.3597507669731</v>
+        <v>290.5664357032773</v>
       </c>
       <c r="AB8" t="n">
-        <v>290.5599796502358</v>
+        <v>397.5658162156568</v>
       </c>
       <c r="AC8" t="n">
-        <v>262.8293429959955</v>
+        <v>359.6226927031612</v>
       </c>
       <c r="AD8" t="n">
-        <v>212359.7507669732</v>
+        <v>290566.4357032773</v>
       </c>
       <c r="AE8" t="n">
-        <v>290559.9796502358</v>
+        <v>397565.8162156568</v>
       </c>
       <c r="AF8" t="n">
         <v>1.018173812839917e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>262829.3429959955</v>
+        <v>359622.6927031612</v>
       </c>
     </row>
     <row r="9">
@@ -6354,28 +6354,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>212.4728801222689</v>
+        <v>290.6795650585731</v>
       </c>
       <c r="AB9" t="n">
-        <v>290.7147682250663</v>
+        <v>397.7206047904874</v>
       </c>
       <c r="AC9" t="n">
-        <v>262.9693587664914</v>
+        <v>359.7627084736571</v>
       </c>
       <c r="AD9" t="n">
-        <v>212472.8801222689</v>
+        <v>290679.5650585731</v>
       </c>
       <c r="AE9" t="n">
-        <v>290714.7682250663</v>
+        <v>397720.6047904874</v>
       </c>
       <c r="AF9" t="n">
         <v>1.017427977435016e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.42824074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>262969.3587664914</v>
+        <v>359762.7084736571</v>
       </c>
     </row>
   </sheetData>
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.4076822879424</v>
+        <v>744.5228403480705</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.6123731536866</v>
+        <v>1018.68899619379</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.2984905229122</v>
+        <v>921.4667481360403</v>
       </c>
       <c r="AD2" t="n">
-        <v>584407.6822879424</v>
+        <v>744522.8403480705</v>
       </c>
       <c r="AE2" t="n">
-        <v>799612.3731536865</v>
+        <v>1018688.99619379</v>
       </c>
       <c r="AF2" t="n">
         <v>4.153449244113445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>723298.4905229121</v>
+        <v>921466.7481360403</v>
       </c>
     </row>
     <row r="3">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.6990080050799</v>
+        <v>578.7799514649895</v>
       </c>
       <c r="AB3" t="n">
-        <v>613.929777955709</v>
+        <v>791.9122635637608</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.3371816034706</v>
+        <v>716.3332685850772</v>
       </c>
       <c r="AD3" t="n">
-        <v>448699.0080050799</v>
+        <v>578779.9514649895</v>
       </c>
       <c r="AE3" t="n">
-        <v>613929.777955709</v>
+        <v>791912.2635637608</v>
       </c>
       <c r="AF3" t="n">
         <v>5.106171349011968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>555337.1816034706</v>
+        <v>716333.2685850773</v>
       </c>
     </row>
     <row r="4">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.2486914682326</v>
+        <v>495.3409906134438</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.1142556395888</v>
+        <v>677.7473962595201</v>
       </c>
       <c r="AC4" t="n">
-        <v>476.8072108908499</v>
+        <v>613.0641359849557</v>
       </c>
       <c r="AD4" t="n">
-        <v>385248.6914682326</v>
+        <v>495340.9906134438</v>
       </c>
       <c r="AE4" t="n">
-        <v>527114.2556395888</v>
+        <v>677747.3962595201</v>
       </c>
       <c r="AF4" t="n">
         <v>5.772408972766241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.09027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>476807.2108908499</v>
+        <v>613064.1359849557</v>
       </c>
     </row>
     <row r="5">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.8879129181647</v>
+        <v>455.9118812258143</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.2591019523906</v>
+        <v>623.7987493058264</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.091917485375</v>
+        <v>564.2642721791209</v>
       </c>
       <c r="AD5" t="n">
-        <v>345887.9129181647</v>
+        <v>455911.8812258143</v>
       </c>
       <c r="AE5" t="n">
-        <v>473259.1019523906</v>
+        <v>623798.7493058264</v>
       </c>
       <c r="AF5" t="n">
         <v>6.285041171341082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.20370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>428091.917485375</v>
+        <v>564264.2721791209</v>
       </c>
     </row>
     <row r="6">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>312.7125657972831</v>
+        <v>422.7696884938563</v>
       </c>
       <c r="AB6" t="n">
-        <v>427.8671284285806</v>
+        <v>578.4521390796101</v>
       </c>
       <c r="AC6" t="n">
-        <v>387.0320902066424</v>
+        <v>523.2454787885275</v>
       </c>
       <c r="AD6" t="n">
-        <v>312712.5657972831</v>
+        <v>422769.6884938563</v>
       </c>
       <c r="AE6" t="n">
-        <v>427867.1284285806</v>
+        <v>578452.1390796101</v>
       </c>
       <c r="AF6" t="n">
         <v>6.697380772216307e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.89583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>387032.0902066424</v>
+        <v>523245.4787885275</v>
       </c>
     </row>
     <row r="7">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>293.0621036851326</v>
+        <v>393.1419869337472</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.9804992495319</v>
+        <v>537.9142107231252</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.7114831808211</v>
+        <v>486.5764334190457</v>
       </c>
       <c r="AD7" t="n">
-        <v>293062.1036851326</v>
+        <v>393141.9869337472</v>
       </c>
       <c r="AE7" t="n">
-        <v>400980.4992495319</v>
+        <v>537914.2107231251</v>
       </c>
       <c r="AF7" t="n">
         <v>7.051456246299333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.90046296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>362711.4831808211</v>
+        <v>486576.4334190456</v>
       </c>
     </row>
     <row r="8">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>286.4096554968958</v>
+        <v>376.4449794898471</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.8783261530853</v>
+        <v>515.0686285184007</v>
       </c>
       <c r="AC8" t="n">
-        <v>354.4780087097192</v>
+        <v>465.9112015159642</v>
       </c>
       <c r="AD8" t="n">
-        <v>286409.6554968958</v>
+        <v>376444.9794898471</v>
       </c>
       <c r="AE8" t="n">
-        <v>391878.3261530853</v>
+        <v>515068.6285184007</v>
       </c>
       <c r="AF8" t="n">
         <v>7.317905237202787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.21759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>354478.0087097192</v>
+        <v>465911.2015159642</v>
       </c>
     </row>
     <row r="9">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.6324663905179</v>
+        <v>360.7351101911738</v>
       </c>
       <c r="AB9" t="n">
-        <v>370.2912799772799</v>
+        <v>493.5736922734368</v>
       </c>
       <c r="AC9" t="n">
-        <v>334.951199923323</v>
+        <v>446.4677118178871</v>
       </c>
       <c r="AD9" t="n">
-        <v>270632.4663905179</v>
+        <v>360735.1101911737</v>
       </c>
       <c r="AE9" t="n">
-        <v>370291.2799772799</v>
+        <v>493573.6922734368</v>
       </c>
       <c r="AF9" t="n">
         <v>7.566621667778181e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.61574074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>334951.199923323</v>
+        <v>446467.7118178871</v>
       </c>
     </row>
     <row r="10">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>266.8009610569514</v>
+        <v>356.8021196311219</v>
       </c>
       <c r="AB10" t="n">
-        <v>365.0488453458087</v>
+        <v>488.1924010778762</v>
       </c>
       <c r="AC10" t="n">
-        <v>330.2090958952762</v>
+        <v>441.6000035013412</v>
       </c>
       <c r="AD10" t="n">
-        <v>266800.9610569514</v>
+        <v>356802.1196311219</v>
       </c>
       <c r="AE10" t="n">
-        <v>365048.8453458087</v>
+        <v>488192.4010778762</v>
       </c>
       <c r="AF10" t="n">
         <v>7.734735551407847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.2337962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>330209.0958952762</v>
+        <v>441600.0035013412</v>
       </c>
     </row>
     <row r="11">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>252.6132469846991</v>
+        <v>342.6817253665772</v>
       </c>
       <c r="AB11" t="n">
-        <v>345.63658903422</v>
+        <v>468.8722546972966</v>
       </c>
       <c r="AC11" t="n">
-        <v>312.6495180808967</v>
+        <v>424.1237447753284</v>
       </c>
       <c r="AD11" t="n">
-        <v>252613.2469846991</v>
+        <v>342681.7253665772</v>
       </c>
       <c r="AE11" t="n">
-        <v>345636.58903422</v>
+        <v>468872.2546972967</v>
       </c>
       <c r="AF11" t="n">
         <v>7.921388020835029e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.8287037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>312649.5180808966</v>
+        <v>424123.7447753284</v>
       </c>
     </row>
     <row r="12">
@@ -7711,28 +7711,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>249.2129708245738</v>
+        <v>339.2814492064519</v>
       </c>
       <c r="AB12" t="n">
-        <v>340.9841811823419</v>
+        <v>464.2198468454162</v>
       </c>
       <c r="AC12" t="n">
-        <v>308.4411295047049</v>
+        <v>419.9153561991359</v>
       </c>
       <c r="AD12" t="n">
-        <v>249212.9708245738</v>
+        <v>339281.4492064519</v>
       </c>
       <c r="AE12" t="n">
-        <v>340984.1811823419</v>
+        <v>464219.8468454162</v>
       </c>
       <c r="AF12" t="n">
         <v>8.07430256704064e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.50462962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>308441.1295047048</v>
+        <v>419915.3561991359</v>
       </c>
     </row>
     <row r="13">
@@ -7817,28 +7817,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>233.6998681604409</v>
+        <v>323.734181123538</v>
       </c>
       <c r="AB13" t="n">
-        <v>319.7584697274982</v>
+        <v>442.9473887573137</v>
       </c>
       <c r="AC13" t="n">
-        <v>289.2411701606316</v>
+        <v>400.6731116548795</v>
       </c>
       <c r="AD13" t="n">
-        <v>233699.8681604409</v>
+        <v>323734.1811235379</v>
       </c>
       <c r="AE13" t="n">
-        <v>319758.4697274981</v>
+        <v>442947.3887573137</v>
       </c>
       <c r="AF13" t="n">
         <v>8.32923690838042e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>289241.1701606315</v>
+        <v>400673.1116548795</v>
       </c>
     </row>
     <row r="14">
@@ -7923,28 +7923,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>246.0854269424232</v>
+        <v>326.1093460686382</v>
       </c>
       <c r="AB14" t="n">
-        <v>336.7049376652875</v>
+        <v>446.1971942200818</v>
       </c>
       <c r="AC14" t="n">
-        <v>304.5702909829608</v>
+        <v>403.6127602454117</v>
       </c>
       <c r="AD14" t="n">
-        <v>246085.4269424232</v>
+        <v>326109.3460686381</v>
       </c>
       <c r="AE14" t="n">
-        <v>336704.9376652875</v>
+        <v>446197.1942200818</v>
       </c>
       <c r="AF14" t="n">
         <v>8.228138285211347e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.19212962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>304570.2909829608</v>
+        <v>403612.7602454117</v>
       </c>
     </row>
     <row r="15">
@@ -8029,28 +8029,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>232.2424465021514</v>
+        <v>322.2767594652485</v>
       </c>
       <c r="AB15" t="n">
-        <v>317.7643611177218</v>
+        <v>440.9532801475363</v>
       </c>
       <c r="AC15" t="n">
-        <v>287.4373764778226</v>
+        <v>398.8693179720702</v>
       </c>
       <c r="AD15" t="n">
-        <v>232242.4465021514</v>
+        <v>322276.7594652484</v>
       </c>
       <c r="AE15" t="n">
-        <v>317764.3611177218</v>
+        <v>440953.2801475363</v>
       </c>
       <c r="AF15" t="n">
         <v>8.371610818774748e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.91435185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>287437.3764778225</v>
+        <v>398869.3179720702</v>
       </c>
     </row>
     <row r="16">
@@ -8135,28 +8135,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>229.8468433151301</v>
+        <v>309.9380822490492</v>
       </c>
       <c r="AB16" t="n">
-        <v>314.4865911506873</v>
+        <v>424.0709576363117</v>
       </c>
       <c r="AC16" t="n">
-        <v>284.4724322760617</v>
+        <v>383.5982206268284</v>
       </c>
       <c r="AD16" t="n">
-        <v>229846.8433151301</v>
+        <v>309938.0822490492</v>
       </c>
       <c r="AE16" t="n">
-        <v>314486.5911506873</v>
+        <v>424070.9576363117</v>
       </c>
       <c r="AF16" t="n">
         <v>8.483763505524947e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.70601851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>284472.4322760617</v>
+        <v>383598.2206268284</v>
       </c>
     </row>
     <row r="17">
@@ -8241,28 +8241,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>228.7151794508087</v>
+        <v>308.8064183847277</v>
       </c>
       <c r="AB17" t="n">
-        <v>312.9381987260374</v>
+        <v>422.5225652116609</v>
       </c>
       <c r="AC17" t="n">
-        <v>283.0718162512375</v>
+        <v>382.1976046020039</v>
       </c>
       <c r="AD17" t="n">
-        <v>228715.1794508087</v>
+        <v>308806.4183847277</v>
       </c>
       <c r="AE17" t="n">
-        <v>312938.1987260374</v>
+        <v>422522.5652116609</v>
       </c>
       <c r="AF17" t="n">
         <v>8.547784957098984e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>283071.8162512375</v>
+        <v>382197.6046020039</v>
       </c>
     </row>
     <row r="18">
@@ -8347,28 +8347,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>228.7308661490098</v>
+        <v>308.8221050829289</v>
       </c>
       <c r="AB18" t="n">
-        <v>312.9596619585645</v>
+        <v>422.544028444188</v>
       </c>
       <c r="AC18" t="n">
-        <v>283.0912310629761</v>
+        <v>382.2170194137425</v>
       </c>
       <c r="AD18" t="n">
-        <v>228730.8661490098</v>
+        <v>308822.1050829289</v>
       </c>
       <c r="AE18" t="n">
-        <v>312959.6619585645</v>
+        <v>422544.028444188</v>
       </c>
       <c r="AF18" t="n">
         <v>8.548706129064079e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>283091.2310629761</v>
+        <v>382217.0194137425</v>
       </c>
     </row>
   </sheetData>
@@ -8644,28 +8644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.0955009531535</v>
+        <v>418.442541123912</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.6579507481352</v>
+        <v>572.5315451477834</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.5151568521892</v>
+        <v>517.8899380319485</v>
       </c>
       <c r="AD2" t="n">
-        <v>292095.5009531535</v>
+        <v>418442.541123912</v>
       </c>
       <c r="AE2" t="n">
-        <v>399657.9507481352</v>
+        <v>572531.5451477834</v>
       </c>
       <c r="AF2" t="n">
         <v>1.529586372464061e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.97222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>361515.1568521892</v>
+        <v>517889.9380319485</v>
       </c>
     </row>
   </sheetData>
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.5421907672877</v>
+        <v>282.019733843702</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.6001374060365</v>
+        <v>385.8718416775109</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.6291769238714</v>
+        <v>349.0447746823396</v>
       </c>
       <c r="AD2" t="n">
-        <v>206542.1907672877</v>
+        <v>282019.733843702</v>
       </c>
       <c r="AE2" t="n">
-        <v>282600.1374060365</v>
+        <v>385871.8416775109</v>
       </c>
       <c r="AF2" t="n">
         <v>1.330162173959862e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>255629.1769238714</v>
+        <v>349044.7746823396</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.0098438954394</v>
+        <v>467.7371050506475</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.8989097622585</v>
+        <v>639.9785422350189</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.193469953389</v>
+        <v>578.8998883796335</v>
       </c>
       <c r="AD2" t="n">
-        <v>350009.8438954393</v>
+        <v>467737.1050506475</v>
       </c>
       <c r="AE2" t="n">
-        <v>478898.9097622585</v>
+        <v>639978.5422350189</v>
       </c>
       <c r="AF2" t="n">
         <v>6.721051101524824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>433193.469953389</v>
+        <v>578899.8883796334</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.6068269153271</v>
+        <v>401.4864704372553</v>
       </c>
       <c r="AB3" t="n">
-        <v>401.7258136045768</v>
+        <v>549.3315011852554</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.3856657798758</v>
+        <v>496.9040737037382</v>
       </c>
       <c r="AD3" t="n">
-        <v>293606.8269153271</v>
+        <v>401486.4704372553</v>
       </c>
       <c r="AE3" t="n">
-        <v>401725.8136045769</v>
+        <v>549331.5011852555</v>
       </c>
       <c r="AF3" t="n">
         <v>7.701525716200856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.97685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>363385.6657798758</v>
+        <v>496904.0737037382</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.8456000682805</v>
+        <v>358.0993501910678</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.2146547611026</v>
+        <v>489.9673291597674</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.9773263067248</v>
+        <v>443.2055349382239</v>
       </c>
       <c r="AD4" t="n">
-        <v>269845.6000682805</v>
+        <v>358099.3501910678</v>
       </c>
       <c r="AE4" t="n">
-        <v>369214.6547611026</v>
+        <v>489967.3291597674</v>
       </c>
       <c r="AF4" t="n">
         <v>8.381369315989103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.35648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>333977.3263067247</v>
+        <v>443205.5349382239</v>
       </c>
     </row>
     <row r="5">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>249.9144640863764</v>
+        <v>338.1340487903861</v>
       </c>
       <c r="AB5" t="n">
-        <v>341.9439952108384</v>
+        <v>462.649922976421</v>
       </c>
       <c r="AC5" t="n">
-        <v>309.3093402294294</v>
+        <v>418.4952636607957</v>
       </c>
       <c r="AD5" t="n">
-        <v>249914.4640863764</v>
+        <v>338134.0487903861</v>
       </c>
       <c r="AE5" t="n">
-        <v>341943.9952108384</v>
+        <v>462649.922976421</v>
       </c>
       <c r="AF5" t="n">
         <v>8.95869787266436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.17592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>309309.3402294294</v>
+        <v>418495.2636607958</v>
       </c>
     </row>
     <row r="6">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.8783296345142</v>
+        <v>312.3186275428053</v>
       </c>
       <c r="AB6" t="n">
-        <v>320.0026485894899</v>
+        <v>427.3281247294749</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.4620449347419</v>
+        <v>386.5445282640829</v>
       </c>
       <c r="AD6" t="n">
-        <v>233878.3296345142</v>
+        <v>312318.6275428053</v>
       </c>
       <c r="AE6" t="n">
-        <v>320002.6485894899</v>
+        <v>427328.1247294749</v>
       </c>
       <c r="AF6" t="n">
         <v>9.344026789579351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.46990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>289462.0449347419</v>
+        <v>386544.528264083</v>
       </c>
     </row>
     <row r="7">
@@ -9768,28 +9768,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>218.694242793732</v>
+        <v>306.9469818866647</v>
       </c>
       <c r="AB7" t="n">
-        <v>299.2271110993079</v>
+        <v>419.9784021624623</v>
       </c>
       <c r="AC7" t="n">
-        <v>270.6692955839664</v>
+        <v>379.8962529034656</v>
       </c>
       <c r="AD7" t="n">
-        <v>218694.242793732</v>
+        <v>306946.9818866648</v>
       </c>
       <c r="AE7" t="n">
-        <v>299227.1110993079</v>
+        <v>419978.4021624622</v>
       </c>
       <c r="AF7" t="n">
         <v>9.680690977857045e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>270669.2955839664</v>
+        <v>379896.2529034655</v>
       </c>
     </row>
     <row r="8">
@@ -9874,28 +9874,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>214.8015128769109</v>
+        <v>293.3091305929061</v>
       </c>
       <c r="AB8" t="n">
-        <v>293.9009062919924</v>
+        <v>401.3184923628056</v>
       </c>
       <c r="AC8" t="n">
-        <v>265.851416288084</v>
+        <v>363.0172187057402</v>
       </c>
       <c r="AD8" t="n">
-        <v>214801.5128769109</v>
+        <v>293309.1305929061</v>
       </c>
       <c r="AE8" t="n">
-        <v>293900.9062919925</v>
+        <v>401318.4923628056</v>
       </c>
       <c r="AF8" t="n">
         <v>9.923881657304082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>265851.416288084</v>
+        <v>363017.2187057402</v>
       </c>
     </row>
     <row r="9">
@@ -9980,28 +9980,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>214.3107638895811</v>
+        <v>292.7168963790911</v>
       </c>
       <c r="AB9" t="n">
-        <v>293.2294418772109</v>
+        <v>400.5081713839344</v>
       </c>
       <c r="AC9" t="n">
-        <v>265.2440354946428</v>
+        <v>362.2842336237999</v>
       </c>
       <c r="AD9" t="n">
-        <v>214310.7638895811</v>
+        <v>292716.8963790911</v>
       </c>
       <c r="AE9" t="n">
-        <v>293229.4418772109</v>
+        <v>400508.1713839344</v>
       </c>
       <c r="AF9" t="n">
         <v>9.940635088474299e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>265244.0354946428</v>
+        <v>362284.2336237999</v>
       </c>
     </row>
     <row r="10">
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>213.7867134914954</v>
+        <v>292.1928459810053</v>
       </c>
       <c r="AB10" t="n">
-        <v>292.5124130030785</v>
+        <v>399.7911425098016</v>
       </c>
       <c r="AC10" t="n">
-        <v>264.595438849901</v>
+        <v>361.6356369790579</v>
       </c>
       <c r="AD10" t="n">
-        <v>213786.7134914953</v>
+        <v>292192.8459810053</v>
       </c>
       <c r="AE10" t="n">
-        <v>292512.4130030785</v>
+        <v>399791.1425098016</v>
       </c>
       <c r="AF10" t="n">
         <v>9.997277641478367e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.39351851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>264595.438849901</v>
+        <v>361635.636979058</v>
       </c>
     </row>
   </sheetData>
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.4021081907733</v>
+        <v>303.3624743140949</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.4591555305853</v>
+        <v>415.0739207643589</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.0700712133809</v>
+        <v>375.4598483265144</v>
       </c>
       <c r="AD2" t="n">
-        <v>217402.1081907733</v>
+        <v>303362.4743140949</v>
       </c>
       <c r="AE2" t="n">
-        <v>297459.1555305853</v>
+        <v>415073.9207643589</v>
       </c>
       <c r="AF2" t="n">
         <v>1.153382858211179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.72453703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>269070.0712133809</v>
+        <v>375459.8483265144</v>
       </c>
     </row>
     <row r="3">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.1035554071863</v>
+        <v>277.5431390001663</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.1587565706914</v>
+        <v>379.7467671191592</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.8979910314056</v>
+        <v>343.5042686432409</v>
       </c>
       <c r="AD3" t="n">
-        <v>201103.5554071863</v>
+        <v>277543.1390001663</v>
       </c>
       <c r="AE3" t="n">
-        <v>275158.7565706914</v>
+        <v>379746.7671191592</v>
       </c>
       <c r="AF3" t="n">
         <v>1.220620199763452e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>248897.9910314055</v>
+        <v>343504.2686432409</v>
       </c>
     </row>
     <row r="4">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.9100815356822</v>
+        <v>277.3496651286621</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.8940370842348</v>
+        <v>379.4820476327025</v>
       </c>
       <c r="AC4" t="n">
-        <v>248.6585360012002</v>
+        <v>343.2648136130355</v>
       </c>
       <c r="AD4" t="n">
-        <v>200910.0815356822</v>
+        <v>277349.6651286621</v>
       </c>
       <c r="AE4" t="n">
-        <v>274894.0370842348</v>
+        <v>379482.0476327025</v>
       </c>
       <c r="AF4" t="n">
         <v>1.224002896252947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>248658.5360012001</v>
+        <v>343264.8136130355</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.1385353472423</v>
+        <v>636.2519623087235</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.5244350975161</v>
+        <v>870.5480042863304</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.9122784847284</v>
+        <v>787.4641245790401</v>
       </c>
       <c r="AD2" t="n">
-        <v>487138.5353472423</v>
+        <v>636251.9623087235</v>
       </c>
       <c r="AE2" t="n">
-        <v>666524.435097516</v>
+        <v>870548.0042863304</v>
       </c>
       <c r="AF2" t="n">
         <v>4.888964333476876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.44907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>602912.2784847284</v>
+        <v>787464.1245790401</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.7419345993604</v>
+        <v>515.0228043543131</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.7891326519491</v>
+        <v>704.6769221201181</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.4176785883464</v>
+        <v>637.4235456932452</v>
       </c>
       <c r="AD3" t="n">
-        <v>385741.9345993605</v>
+        <v>515022.8043543131</v>
       </c>
       <c r="AE3" t="n">
-        <v>527789.1326519491</v>
+        <v>704676.922120118</v>
       </c>
       <c r="AF3" t="n">
         <v>5.82345672966736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.87731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>477417.6785883464</v>
+        <v>637423.5456932451</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.5130722120196</v>
+        <v>448.8609105638156</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.5367636601197</v>
+        <v>614.1513001792082</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.2020269178398</v>
+        <v>555.5375620568672</v>
       </c>
       <c r="AD4" t="n">
-        <v>339513.0722120196</v>
+        <v>448860.9105638156</v>
       </c>
       <c r="AE4" t="n">
-        <v>464536.7636601197</v>
+        <v>614151.3001792082</v>
       </c>
       <c r="AF4" t="n">
         <v>6.527990467294127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.29629629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>420202.0269178398</v>
+        <v>555537.5620568672</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.5618786659373</v>
+        <v>404.0612637371021</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.7149987125353</v>
+        <v>552.8544469699694</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.9443040985841</v>
+        <v>500.0907944872446</v>
       </c>
       <c r="AD5" t="n">
-        <v>304561.8786659373</v>
+        <v>404061.2637371022</v>
       </c>
       <c r="AE5" t="n">
-        <v>416714.9987125353</v>
+        <v>552854.4469699694</v>
       </c>
       <c r="AF5" t="n">
         <v>7.049302180725665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>376944.3040985841</v>
+        <v>500090.7944872446</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.9774327119577</v>
+        <v>384.4426523643418</v>
       </c>
       <c r="AB6" t="n">
-        <v>389.9186957535234</v>
+        <v>526.0113973777097</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.7054026851329</v>
+        <v>475.8096078736133</v>
       </c>
       <c r="AD6" t="n">
-        <v>284977.4327119577</v>
+        <v>384442.6523643418</v>
       </c>
       <c r="AE6" t="n">
-        <v>389918.6957535234</v>
+        <v>526011.3973777097</v>
       </c>
       <c r="AF6" t="n">
         <v>7.435450105816462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>352705.4026851329</v>
+        <v>475809.6078736134</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.0093894086343</v>
+        <v>366.4404436422374</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.3340262117911</v>
+        <v>501.3799812027298</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.4670594996632</v>
+        <v>453.5289794879637</v>
       </c>
       <c r="AD7" t="n">
-        <v>267009.3894086343</v>
+        <v>366440.4436422374</v>
       </c>
       <c r="AE7" t="n">
-        <v>365334.0262117911</v>
+        <v>501379.9812027297</v>
       </c>
       <c r="AF7" t="n">
         <v>7.795286146776927e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.83564814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>330467.0594996632</v>
+        <v>453528.9794879637</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>261.9592458078464</v>
+        <v>351.4072071454094</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.4241969405817</v>
+        <v>480.8108438081832</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.2166946360917</v>
+        <v>434.9229316973871</v>
       </c>
       <c r="AD8" t="n">
-        <v>261959.2458078464</v>
+        <v>351407.2071454094</v>
       </c>
       <c r="AE8" t="n">
-        <v>358424.1969405817</v>
+        <v>480810.8438081832</v>
       </c>
       <c r="AF8" t="n">
         <v>8.037259364304266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.30324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>324216.6946360917</v>
+        <v>434922.9316973871</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.7116616581186</v>
+        <v>336.2269428033891</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.5617796308273</v>
+        <v>460.0405364294337</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.345357153895</v>
+        <v>416.1349133035559</v>
       </c>
       <c r="AD9" t="n">
-        <v>246711.6616581186</v>
+        <v>336226.9428033892</v>
       </c>
       <c r="AE9" t="n">
-        <v>337561.7796308273</v>
+        <v>460040.5364294337</v>
       </c>
       <c r="AF9" t="n">
         <v>8.30722650421684e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>305345.357153895</v>
+        <v>416134.9133035559</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>242.8090692283398</v>
+        <v>322.3412574775702</v>
       </c>
       <c r="AB10" t="n">
-        <v>332.2220804981798</v>
+        <v>441.0415291734463</v>
       </c>
       <c r="AC10" t="n">
-        <v>300.5152714121509</v>
+        <v>398.9491446348059</v>
       </c>
       <c r="AD10" t="n">
-        <v>242809.0692283398</v>
+        <v>322341.2574775702</v>
       </c>
       <c r="AE10" t="n">
-        <v>332222.0804981798</v>
+        <v>441041.5291734464</v>
       </c>
       <c r="AF10" t="n">
         <v>8.501501922658601e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>300515.2714121509</v>
+        <v>398949.1446348059</v>
       </c>
     </row>
     <row r="11">
@@ -11846,28 +11846,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>228.4196298697451</v>
+        <v>317.9007455962346</v>
       </c>
       <c r="AB11" t="n">
-        <v>312.5338147504991</v>
+        <v>434.9658249158449</v>
       </c>
       <c r="AC11" t="n">
-        <v>282.706026114768</v>
+        <v>393.4532970642453</v>
       </c>
       <c r="AD11" t="n">
-        <v>228419.6298697451</v>
+        <v>317900.7455962346</v>
       </c>
       <c r="AE11" t="n">
-        <v>312533.8147504991</v>
+        <v>434965.8249158449</v>
       </c>
       <c r="AF11" t="n">
         <v>8.729418106198501e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.92592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>282706.026114768</v>
+        <v>393453.2970642453</v>
       </c>
     </row>
     <row r="12">
@@ -11952,28 +11952,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>225.9715722837524</v>
+        <v>305.571080340687</v>
       </c>
       <c r="AB12" t="n">
-        <v>309.1842743606672</v>
+        <v>418.0958329667634</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.6761611586312</v>
+        <v>378.1933534696018</v>
       </c>
       <c r="AD12" t="n">
-        <v>225971.5722837524</v>
+        <v>305571.0803406871</v>
       </c>
       <c r="AE12" t="n">
-        <v>309184.2743606673</v>
+        <v>418095.8329667634</v>
       </c>
       <c r="AF12" t="n">
         <v>8.849083113476172e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>279676.1611586312</v>
+        <v>378193.3534696018</v>
       </c>
     </row>
     <row r="13">
@@ -12058,28 +12058,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>224.289572130896</v>
+        <v>303.8890801878305</v>
       </c>
       <c r="AB13" t="n">
-        <v>306.8828875469206</v>
+        <v>415.7944461530155</v>
       </c>
       <c r="AC13" t="n">
-        <v>277.5944154723711</v>
+        <v>376.1116077833413</v>
       </c>
       <c r="AD13" t="n">
-        <v>224289.572130896</v>
+        <v>303889.0801878306</v>
       </c>
       <c r="AE13" t="n">
-        <v>306882.8875469206</v>
+        <v>415794.4461530155</v>
       </c>
       <c r="AF13" t="n">
         <v>8.921170467257902e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>277594.415472371</v>
+        <v>376111.6077833413</v>
       </c>
     </row>
     <row r="14">
@@ -12164,28 +12164,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>223.3227914794007</v>
+        <v>302.8208143098501</v>
       </c>
       <c r="AB14" t="n">
-        <v>305.5600956081933</v>
+        <v>414.3327976501984</v>
       </c>
       <c r="AC14" t="n">
-        <v>276.3978689397254</v>
+        <v>374.7894569621964</v>
       </c>
       <c r="AD14" t="n">
-        <v>223322.7914794007</v>
+        <v>302820.8143098501</v>
       </c>
       <c r="AE14" t="n">
-        <v>305560.0956081933</v>
+        <v>414332.7976501983</v>
       </c>
       <c r="AF14" t="n">
         <v>8.974515109056379e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>276397.8689397253</v>
+        <v>374789.4569621964</v>
       </c>
     </row>
     <row r="15">
@@ -12270,28 +12270,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>223.2495524313264</v>
+        <v>302.7475752617758</v>
       </c>
       <c r="AB15" t="n">
-        <v>305.4598867115392</v>
+        <v>414.2325887535442</v>
       </c>
       <c r="AC15" t="n">
-        <v>276.3072238395238</v>
+        <v>374.6988118619949</v>
       </c>
       <c r="AD15" t="n">
-        <v>223249.5524313264</v>
+        <v>302747.5752617758</v>
       </c>
       <c r="AE15" t="n">
-        <v>305459.8867115392</v>
+        <v>414232.5887535442</v>
       </c>
       <c r="AF15" t="n">
         <v>8.977638894386921e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>276307.2238395239</v>
+        <v>374698.8118619949</v>
       </c>
     </row>
   </sheetData>
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.8195685546336</v>
+        <v>372.5235748292296</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.3885019970199</v>
+        <v>509.7031896615798</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.3710730345127</v>
+        <v>461.0578326131976</v>
       </c>
       <c r="AD2" t="n">
-        <v>275819.5685546336</v>
+        <v>372523.5748292296</v>
       </c>
       <c r="AE2" t="n">
-        <v>377388.5019970199</v>
+        <v>509703.1896615798</v>
       </c>
       <c r="AF2" t="n">
         <v>8.912794172654629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341371.0730345127</v>
+        <v>461057.8326131976</v>
       </c>
     </row>
     <row r="3">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.721715811404</v>
+        <v>327.7451729358948</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.3660714655961</v>
+        <v>448.4354047074504</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.9318358732023</v>
+        <v>405.637359065214</v>
       </c>
       <c r="AD3" t="n">
-        <v>240721.715811404</v>
+        <v>327745.1729358948</v>
       </c>
       <c r="AE3" t="n">
-        <v>329366.0714655961</v>
+        <v>448435.4047074504</v>
       </c>
       <c r="AF3" t="n">
         <v>9.93037329025577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>297931.8358732022</v>
+        <v>405637.359065214</v>
       </c>
     </row>
     <row r="4">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.6136879449973</v>
+        <v>298.9907613381605</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.2216247520971</v>
+        <v>409.0923502043208</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.2825784600698</v>
+        <v>370.0491504655392</v>
       </c>
       <c r="AD4" t="n">
-        <v>221613.6879449973</v>
+        <v>298990.7613381605</v>
       </c>
       <c r="AE4" t="n">
-        <v>303221.6247520971</v>
+        <v>409092.3502043208</v>
       </c>
       <c r="AF4" t="n">
         <v>1.065045370112167e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>274282.5784600698</v>
+        <v>370049.1504655392</v>
       </c>
     </row>
     <row r="5">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.9790295778087</v>
+        <v>284.4234227786762</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.1978395385593</v>
+        <v>389.1606749216142</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.1698352037466</v>
+        <v>352.0197262975322</v>
       </c>
       <c r="AD5" t="n">
-        <v>206979.0295778087</v>
+        <v>284423.4227786762</v>
       </c>
       <c r="AE5" t="n">
-        <v>283197.8395385593</v>
+        <v>389160.6749216142</v>
       </c>
       <c r="AF5" t="n">
         <v>1.105196567140874e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.54398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>256169.8352037466</v>
+        <v>352019.7262975322</v>
       </c>
     </row>
     <row r="6">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.5053286474075</v>
+        <v>283.8482366217897</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.5497010273746</v>
+        <v>388.3736798463398</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.583554122401</v>
+        <v>351.3078409276875</v>
       </c>
       <c r="AD6" t="n">
-        <v>206505.3286474075</v>
+        <v>283848.2366217897</v>
       </c>
       <c r="AE6" t="n">
-        <v>282549.7010273746</v>
+        <v>388373.6798463398</v>
       </c>
       <c r="AF6" t="n">
         <v>1.109514378794737e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>255583.554122401</v>
+        <v>351307.8409276875</v>
       </c>
     </row>
   </sheetData>
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.3015953962248</v>
+        <v>519.4639153750765</v>
       </c>
       <c r="AB2" t="n">
-        <v>535.3961058291427</v>
+        <v>710.753446146717</v>
       </c>
       <c r="AC2" t="n">
-        <v>484.2986529219626</v>
+        <v>642.9201347952004</v>
       </c>
       <c r="AD2" t="n">
-        <v>391301.5953962248</v>
+        <v>519463.9153750765</v>
       </c>
       <c r="AE2" t="n">
-        <v>535396.1058291427</v>
+        <v>710753.4461467171</v>
       </c>
       <c r="AF2" t="n">
         <v>6.052844392486869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>484298.6529219626</v>
+        <v>642920.1347952004</v>
       </c>
     </row>
     <row r="3">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.567177051436</v>
+        <v>436.9396410075628</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.5601070025961</v>
+        <v>597.8400932430485</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.6547213518406</v>
+        <v>540.7830738177721</v>
       </c>
       <c r="AD3" t="n">
-        <v>328567.177051436</v>
+        <v>436939.6410075629</v>
       </c>
       <c r="AE3" t="n">
-        <v>449560.1070025961</v>
+        <v>597840.0932430485</v>
       </c>
       <c r="AF3" t="n">
         <v>7.02055096463823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>406654.7213518406</v>
+        <v>540783.0738177721</v>
       </c>
     </row>
     <row r="4">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.6315372532468</v>
+        <v>390.1427331018636</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.0231351452891</v>
+        <v>533.8104993126015</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.9409271595095</v>
+        <v>482.8643744659473</v>
       </c>
       <c r="AD4" t="n">
-        <v>291631.5372532468</v>
+        <v>390142.7331018636</v>
       </c>
       <c r="AE4" t="n">
-        <v>399023.1351452891</v>
+        <v>533810.4993126014</v>
       </c>
       <c r="AF4" t="n">
         <v>7.711788255182902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.23611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>360940.9271595095</v>
+        <v>482864.3744659473</v>
       </c>
     </row>
     <row r="5">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.1033055085345</v>
+        <v>359.7873986684218</v>
       </c>
       <c r="AB5" t="n">
-        <v>370.9355028305061</v>
+        <v>492.2769915579261</v>
       </c>
       <c r="AC5" t="n">
-        <v>335.5339390516098</v>
+        <v>445.2947663987338</v>
       </c>
       <c r="AD5" t="n">
-        <v>271103.3055085345</v>
+        <v>359787.3986684218</v>
       </c>
       <c r="AE5" t="n">
-        <v>370935.5028305061</v>
+        <v>492276.9915579261</v>
       </c>
       <c r="AF5" t="n">
         <v>8.227556632181192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.03240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>335533.9390516098</v>
+        <v>445294.7663987338</v>
       </c>
     </row>
     <row r="6">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>253.4022084733629</v>
+        <v>342.0521362144726</v>
       </c>
       <c r="AB6" t="n">
-        <v>346.7160809495337</v>
+        <v>468.010823043874</v>
       </c>
       <c r="AC6" t="n">
-        <v>313.6259848028896</v>
+        <v>423.3445269498815</v>
       </c>
       <c r="AD6" t="n">
-        <v>253402.2084733629</v>
+        <v>342052.1362144726</v>
       </c>
       <c r="AE6" t="n">
-        <v>346716.0809495337</v>
+        <v>468010.8230438741</v>
       </c>
       <c r="AF6" t="n">
         <v>8.643350025566491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>313625.9848028896</v>
+        <v>423344.5269498815</v>
       </c>
     </row>
     <row r="7">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.1892576765167</v>
+        <v>326.9065052253305</v>
       </c>
       <c r="AB7" t="n">
-        <v>325.9010505212772</v>
+        <v>447.2879025464483</v>
       </c>
       <c r="AC7" t="n">
-        <v>294.7975116646206</v>
+        <v>404.5993728999286</v>
       </c>
       <c r="AD7" t="n">
-        <v>238189.2576765167</v>
+        <v>326906.5052253305</v>
       </c>
       <c r="AE7" t="n">
-        <v>325901.0505212772</v>
+        <v>447287.9025464483</v>
       </c>
       <c r="AF7" t="n">
         <v>8.952759782543097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>294797.5116646206</v>
+        <v>404599.3728999286</v>
       </c>
     </row>
     <row r="8">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>233.2898374329344</v>
+        <v>312.1126624853144</v>
       </c>
       <c r="AB8" t="n">
-        <v>319.1974475968452</v>
+        <v>427.0463142512789</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.7336911947284</v>
+        <v>386.2896133824025</v>
       </c>
       <c r="AD8" t="n">
-        <v>233289.8374329344</v>
+        <v>312112.6624853144</v>
       </c>
       <c r="AE8" t="n">
-        <v>319197.4475968452</v>
+        <v>427046.3142512789</v>
       </c>
       <c r="AF8" t="n">
         <v>9.242559061964851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>288733.6911947284</v>
+        <v>386289.6133824025</v>
       </c>
     </row>
     <row r="9">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>218.8269125631164</v>
+        <v>297.7170574232006</v>
       </c>
       <c r="AB9" t="n">
-        <v>299.4086357307568</v>
+        <v>407.3496123160219</v>
       </c>
       <c r="AC9" t="n">
-        <v>270.8334957593613</v>
+        <v>368.4727370353515</v>
       </c>
       <c r="AD9" t="n">
-        <v>218826.9125631164</v>
+        <v>297717.0574232006</v>
       </c>
       <c r="AE9" t="n">
-        <v>299408.6357307568</v>
+        <v>407349.6123160219</v>
       </c>
       <c r="AF9" t="n">
         <v>9.513260556055403e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>270833.4957593612</v>
+        <v>368472.7370353515</v>
       </c>
     </row>
     <row r="10">
@@ -14136,28 +14136,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>216.8014637713943</v>
+        <v>295.5901234049932</v>
       </c>
       <c r="AB10" t="n">
-        <v>296.6373273374297</v>
+        <v>404.4394473586041</v>
       </c>
       <c r="AC10" t="n">
-        <v>268.3266771495367</v>
+        <v>365.8403141370275</v>
       </c>
       <c r="AD10" t="n">
-        <v>216801.4637713943</v>
+        <v>295590.1234049932</v>
       </c>
       <c r="AE10" t="n">
-        <v>296637.3273374297</v>
+        <v>404439.4473586041</v>
       </c>
       <c r="AF10" t="n">
         <v>9.63169245972002e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.40509259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>268326.6771495367</v>
+        <v>365840.3141370275</v>
       </c>
     </row>
     <row r="11">
@@ -14242,28 +14242,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>216.6697395079282</v>
+        <v>295.4583991415272</v>
       </c>
       <c r="AB11" t="n">
-        <v>296.4570963888912</v>
+        <v>404.2592164100655</v>
       </c>
       <c r="AC11" t="n">
-        <v>268.1636471897709</v>
+        <v>365.6772841772618</v>
       </c>
       <c r="AD11" t="n">
-        <v>216669.7395079282</v>
+        <v>295458.3991415272</v>
       </c>
       <c r="AE11" t="n">
-        <v>296457.0963888912</v>
+        <v>404259.2164100655</v>
       </c>
       <c r="AF11" t="n">
         <v>9.647714091709281e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>268163.6471897709</v>
+        <v>365677.2841772618</v>
       </c>
     </row>
   </sheetData>
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.0627322983776</v>
+        <v>288.227902537138</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.2076329428879</v>
+        <v>394.3661319689429</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.5604483252747</v>
+        <v>356.7283818301687</v>
       </c>
       <c r="AD2" t="n">
-        <v>204062.7322983776</v>
+        <v>288227.902537138</v>
       </c>
       <c r="AE2" t="n">
-        <v>279207.6329428879</v>
+        <v>394366.1319689429</v>
       </c>
       <c r="AF2" t="n">
         <v>1.418600873041216e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.89814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>252560.4483252747</v>
+        <v>356728.3818301687</v>
       </c>
     </row>
   </sheetData>
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.5761808086431</v>
+        <v>283.3694220287723</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.0148881970395</v>
+        <v>387.7185445963644</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.9089058849967</v>
+        <v>350.7152308664816</v>
       </c>
       <c r="AD2" t="n">
-        <v>207576.1808086431</v>
+        <v>283369.4220287723</v>
       </c>
       <c r="AE2" t="n">
-        <v>284014.8881970395</v>
+        <v>387718.5445963644</v>
       </c>
       <c r="AF2" t="n">
         <v>1.295136520802467e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.03009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>256908.9058849968</v>
+        <v>350715.2308664816</v>
       </c>
     </row>
     <row r="3">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.7311636642832</v>
+        <v>283.5244048844124</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.2269425774873</v>
+        <v>387.9305989768123</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.1007220929948</v>
+        <v>350.9070470744797</v>
       </c>
       <c r="AD3" t="n">
-        <v>207731.1636642832</v>
+        <v>283524.4048844124</v>
       </c>
       <c r="AE3" t="n">
-        <v>284226.9425774873</v>
+        <v>387930.5989768123</v>
       </c>
       <c r="AF3" t="n">
         <v>1.294150084910314e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257100.7220929948</v>
+        <v>350907.0470744797</v>
       </c>
     </row>
   </sheetData>
@@ -15239,28 +15239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.4488195123616</v>
+        <v>664.0117268910637</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.891570736936</v>
+        <v>908.5301388622686</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.7131471438264</v>
+        <v>821.8212975393114</v>
       </c>
       <c r="AD2" t="n">
-        <v>514448.8195123617</v>
+        <v>664011.7268910637</v>
       </c>
       <c r="AE2" t="n">
-        <v>703891.5707369361</v>
+        <v>908530.1388622685</v>
       </c>
       <c r="AF2" t="n">
         <v>4.63165046393696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>636713.1471438264</v>
+        <v>821821.2975393115</v>
       </c>
     </row>
     <row r="3">
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.3143577967171</v>
+        <v>534.9013787728115</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.568985544943</v>
+        <v>731.8756646203167</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.6416999069924</v>
+        <v>662.0264783828997</v>
       </c>
       <c r="AD3" t="n">
-        <v>405314.3577967171</v>
+        <v>534901.3787728115</v>
       </c>
       <c r="AE3" t="n">
-        <v>554568.985544943</v>
+        <v>731875.6646203167</v>
       </c>
       <c r="AF3" t="n">
         <v>5.587105966083465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.52546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>501641.6999069924</v>
+        <v>662026.4783828997</v>
       </c>
     </row>
     <row r="4">
@@ -15451,28 +15451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.2034223713975</v>
+        <v>466.7854174367976</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.0590400224847</v>
+        <v>638.6764012562551</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.7200719922884</v>
+        <v>577.7220219083165</v>
       </c>
       <c r="AD4" t="n">
-        <v>347203.4223713975</v>
+        <v>466785.4174367976</v>
       </c>
       <c r="AE4" t="n">
-        <v>475059.0400224847</v>
+        <v>638676.4012562551</v>
       </c>
       <c r="AF4" t="n">
         <v>6.277117696753827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.82870370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>429720.0719922883</v>
+        <v>577722.0219083165</v>
       </c>
     </row>
     <row r="5">
@@ -15557,28 +15557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.4227329575035</v>
+        <v>421.0640180689338</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.7847634026492</v>
+        <v>576.1183655553627</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.8123228252916</v>
+        <v>521.1344373339626</v>
       </c>
       <c r="AD5" t="n">
-        <v>321422.7329575035</v>
+        <v>421064.0180689337</v>
       </c>
       <c r="AE5" t="n">
-        <v>439784.7634026492</v>
+        <v>576118.3655553628</v>
       </c>
       <c r="AF5" t="n">
         <v>6.781484541753099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.20833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>397812.3228252916</v>
+        <v>521134.4373339626</v>
       </c>
     </row>
     <row r="6">
@@ -15663,28 +15663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>300.4392614785014</v>
+        <v>390.1438515167991</v>
       </c>
       <c r="AB6" t="n">
-        <v>411.0742519996513</v>
+        <v>533.8120295772571</v>
       </c>
       <c r="AC6" t="n">
-        <v>371.84190233514</v>
+        <v>482.865758684292</v>
       </c>
       <c r="AD6" t="n">
-        <v>300439.2614785014</v>
+        <v>390143.8515167991</v>
       </c>
       <c r="AE6" t="n">
-        <v>411074.2519996513</v>
+        <v>533812.0295772571</v>
       </c>
       <c r="AF6" t="n">
         <v>7.190661024456732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>371841.90233514</v>
+        <v>482865.758684292</v>
       </c>
     </row>
     <row r="7">
@@ -15769,28 +15769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>282.7995472385451</v>
+        <v>372.469971858062</v>
       </c>
       <c r="AB7" t="n">
-        <v>386.9388167672741</v>
+        <v>509.6298477116322</v>
       </c>
       <c r="AC7" t="n">
-        <v>350.0099191670449</v>
+        <v>460.9914903160169</v>
       </c>
       <c r="AD7" t="n">
-        <v>282799.5472385451</v>
+        <v>372469.971858062</v>
       </c>
       <c r="AE7" t="n">
-        <v>386938.8167672742</v>
+        <v>509629.8477116322</v>
       </c>
       <c r="AF7" t="n">
         <v>7.515539574381144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>350009.9191670449</v>
+        <v>460991.4903160169</v>
       </c>
     </row>
     <row r="8">
@@ -15875,28 +15875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>266.121085969509</v>
+        <v>355.8588303967303</v>
       </c>
       <c r="AB8" t="n">
-        <v>364.1186102571981</v>
+        <v>486.9017511323976</v>
       </c>
       <c r="AC8" t="n">
-        <v>329.3676411379295</v>
+        <v>440.4325313752205</v>
       </c>
       <c r="AD8" t="n">
-        <v>266121.085969509</v>
+        <v>355858.8303967303</v>
       </c>
       <c r="AE8" t="n">
-        <v>364118.6102571981</v>
+        <v>486901.7511323976</v>
       </c>
       <c r="AF8" t="n">
         <v>7.813660634406534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.53472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>329367.6411379295</v>
+        <v>440432.5313752205</v>
       </c>
     </row>
     <row r="9">
@@ -15981,28 +15981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.464986347635</v>
+        <v>341.1987158940191</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.7479293419319</v>
+        <v>466.8431357111822</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.6049690679095</v>
+        <v>422.2882820573624</v>
       </c>
       <c r="AD9" t="n">
-        <v>261464.986347635</v>
+        <v>341198.7158940191</v>
       </c>
       <c r="AE9" t="n">
-        <v>357747.9293419319</v>
+        <v>466843.1357111822</v>
       </c>
       <c r="AF9" t="n">
         <v>8.034824311978984e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.06018518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>323604.9690679095</v>
+        <v>422288.2820573624</v>
       </c>
     </row>
     <row r="10">
@@ -16087,28 +16087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>247.5309460802453</v>
+        <v>337.2345250886888</v>
       </c>
       <c r="AB10" t="n">
-        <v>338.6827607214584</v>
+        <v>461.419154963574</v>
       </c>
       <c r="AC10" t="n">
-        <v>306.3593533825433</v>
+        <v>417.381958419701</v>
       </c>
       <c r="AD10" t="n">
-        <v>247530.9460802453</v>
+        <v>337234.5250886888</v>
       </c>
       <c r="AE10" t="n">
-        <v>338682.7607214584</v>
+        <v>461419.154963574</v>
       </c>
       <c r="AF10" t="n">
         <v>8.219995613758058e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>306359.3533825433</v>
+        <v>417381.958419701</v>
       </c>
     </row>
     <row r="11">
@@ -16193,28 +16193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>243.5530880605319</v>
+        <v>323.2526521881383</v>
       </c>
       <c r="AB11" t="n">
-        <v>333.2400798881789</v>
+        <v>442.2885396243426</v>
       </c>
       <c r="AC11" t="n">
-        <v>301.4361143691399</v>
+        <v>400.0771421584586</v>
       </c>
       <c r="AD11" t="n">
-        <v>243553.0880605319</v>
+        <v>323252.6521881383</v>
       </c>
       <c r="AE11" t="n">
-        <v>333240.0798881789</v>
+        <v>442288.5396243426</v>
       </c>
       <c r="AF11" t="n">
         <v>8.419492828270681e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.27314814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>301436.1143691399</v>
+        <v>400077.1421584586</v>
       </c>
     </row>
     <row r="12">
@@ -16299,28 +16299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>228.3503581660217</v>
+        <v>308.1172421013324</v>
       </c>
       <c r="AB12" t="n">
-        <v>312.439034149413</v>
+        <v>421.5796038164074</v>
       </c>
       <c r="AC12" t="n">
-        <v>282.620291241224</v>
+        <v>381.3446381188589</v>
       </c>
       <c r="AD12" t="n">
-        <v>228350.3581660218</v>
+        <v>308117.2421013323</v>
       </c>
       <c r="AE12" t="n">
-        <v>312439.034149413</v>
+        <v>421579.6038164074</v>
       </c>
       <c r="AF12" t="n">
         <v>8.675820109825473e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>282620.291241224</v>
+        <v>381344.6381188589</v>
       </c>
     </row>
     <row r="13">
@@ -16405,28 +16405,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>241.2745221470612</v>
+        <v>320.9740862746675</v>
       </c>
       <c r="AB13" t="n">
-        <v>330.1224454821362</v>
+        <v>439.1709052182983</v>
       </c>
       <c r="AC13" t="n">
-        <v>298.6160226151815</v>
+        <v>397.2570504044999</v>
       </c>
       <c r="AD13" t="n">
-        <v>241274.5221470612</v>
+        <v>320974.0862746675</v>
       </c>
       <c r="AE13" t="n">
-        <v>330122.4454821362</v>
+        <v>439170.9052182983</v>
       </c>
       <c r="AF13" t="n">
         <v>8.529127499272869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>298616.0226151815</v>
+        <v>397257.0504044999</v>
       </c>
     </row>
     <row r="14">
@@ -16511,28 +16511,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>225.8312569183651</v>
+        <v>305.5981408536757</v>
       </c>
       <c r="AB14" t="n">
-        <v>308.9922886874674</v>
+        <v>418.13285835446</v>
       </c>
       <c r="AC14" t="n">
-        <v>279.5024983286278</v>
+        <v>378.2268452062621</v>
       </c>
       <c r="AD14" t="n">
-        <v>225831.2569183651</v>
+        <v>305598.1408536757</v>
       </c>
       <c r="AE14" t="n">
-        <v>308992.2886874673</v>
+        <v>418132.85835446</v>
       </c>
       <c r="AF14" t="n">
         <v>8.788533076125779e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>279502.4983286278</v>
+        <v>378226.8452062621</v>
       </c>
     </row>
     <row r="15">
@@ -16617,28 +16617,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>225.7320701134999</v>
+        <v>305.4989540488105</v>
       </c>
       <c r="AB15" t="n">
-        <v>308.8565769252379</v>
+        <v>417.9971465922305</v>
       </c>
       <c r="AC15" t="n">
-        <v>279.3797387065128</v>
+        <v>378.1040855841471</v>
       </c>
       <c r="AD15" t="n">
-        <v>225732.0701134999</v>
+        <v>305498.9540488105</v>
       </c>
       <c r="AE15" t="n">
-        <v>308856.5769252379</v>
+        <v>417997.1465922305</v>
       </c>
       <c r="AF15" t="n">
         <v>8.770300096283085e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH15" t="n">
-        <v>279379.7387065128</v>
+        <v>378104.0855841471</v>
       </c>
     </row>
     <row r="16">
@@ -16723,28 +16723,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>224.9945397069116</v>
+        <v>304.7614236422222</v>
       </c>
       <c r="AB16" t="n">
-        <v>307.8474552853991</v>
+        <v>416.9880249523912</v>
       </c>
       <c r="AC16" t="n">
-        <v>278.4669262196688</v>
+        <v>377.1912730973029</v>
       </c>
       <c r="AD16" t="n">
-        <v>224994.5397069116</v>
+        <v>304761.4236422221</v>
       </c>
       <c r="AE16" t="n">
-        <v>307847.4552853991</v>
+        <v>416988.0249523912</v>
       </c>
       <c r="AF16" t="n">
         <v>8.828906102920323e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>278466.9262196688</v>
+        <v>377191.2730973029</v>
       </c>
     </row>
   </sheetData>
@@ -17020,28 +17020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5539935375606</v>
+        <v>304.7478624504535</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.139948230311</v>
+        <v>416.9694699315358</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.2086970308891</v>
+        <v>377.1744889415958</v>
       </c>
       <c r="AD2" t="n">
-        <v>221553.9935375606</v>
+        <v>304747.8624504535</v>
       </c>
       <c r="AE2" t="n">
-        <v>303139.948230311</v>
+        <v>416969.4699315358</v>
       </c>
       <c r="AF2" t="n">
         <v>1.509197893580545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>274208.6970308892</v>
+        <v>377174.4889415958</v>
       </c>
     </row>
   </sheetData>
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6444857572648</v>
+        <v>390.3743706067978</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.0948989246431</v>
+        <v>534.1274359659777</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.0556664658861</v>
+        <v>483.1510631299487</v>
       </c>
       <c r="AD2" t="n">
-        <v>283644.4857572648</v>
+        <v>390374.3706067977</v>
       </c>
       <c r="AE2" t="n">
-        <v>388094.8989246431</v>
+        <v>534127.4359659777</v>
       </c>
       <c r="AF2" t="n">
         <v>8.407751023678374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.93055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>351055.6664658861</v>
+        <v>483151.0631299487</v>
       </c>
     </row>
     <row r="3">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.2526498481246</v>
+        <v>344.2736059988337</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.3019835391077</v>
+        <v>471.050336007167</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.014917040052</v>
+        <v>426.0939530619411</v>
       </c>
       <c r="AD3" t="n">
-        <v>247252.6498481246</v>
+        <v>344273.6059988337</v>
       </c>
       <c r="AE3" t="n">
-        <v>338301.9835391077</v>
+        <v>471050.336007167</v>
       </c>
       <c r="AF3" t="n">
         <v>9.389019707913281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>306014.917040052</v>
+        <v>426093.9530619411</v>
       </c>
     </row>
     <row r="4">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.4747480350493</v>
+        <v>314.8209409057122</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.2409857390244</v>
+        <v>430.7519002668785</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.5365828896512</v>
+        <v>389.6415434694958</v>
       </c>
       <c r="AD4" t="n">
-        <v>227474.7480350493</v>
+        <v>314820.9409057123</v>
       </c>
       <c r="AE4" t="n">
-        <v>311240.9857390244</v>
+        <v>430751.9002668785</v>
       </c>
       <c r="AF4" t="n">
         <v>1.010068203387087e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>281536.5828896512</v>
+        <v>389641.5434694958</v>
       </c>
     </row>
     <row r="5">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.7455446613064</v>
+        <v>288.416974251923</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.3513516427162</v>
+        <v>394.6248282303671</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.831503345684</v>
+        <v>356.9623884834851</v>
       </c>
       <c r="AD5" t="n">
-        <v>210745.5446613064</v>
+        <v>288416.974251923</v>
       </c>
       <c r="AE5" t="n">
-        <v>288351.3516427162</v>
+        <v>394624.8282303672</v>
       </c>
       <c r="AF5" t="n">
         <v>1.062280906284402e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.77546296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>260831.5033456841</v>
+        <v>356962.3884834851</v>
       </c>
     </row>
     <row r="6">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>208.0350727974667</v>
+        <v>285.6050171615981</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.6427644610333</v>
+        <v>390.7773844845931</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.476858519585</v>
+        <v>353.4821393688865</v>
       </c>
       <c r="AD6" t="n">
-        <v>208035.0727974667</v>
+        <v>285605.0171615981</v>
       </c>
       <c r="AE6" t="n">
-        <v>284642.7644610333</v>
+        <v>390777.3844845931</v>
       </c>
       <c r="AF6" t="n">
         <v>1.084057918252667e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>257476.858519585</v>
+        <v>353482.1393688865</v>
       </c>
     </row>
     <row r="7">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>208.1958898048412</v>
+        <v>285.7658341689727</v>
       </c>
       <c r="AB7" t="n">
-        <v>284.8628013852688</v>
+        <v>390.9974214088287</v>
       </c>
       <c r="AC7" t="n">
-        <v>257.6758954285953</v>
+        <v>353.6811762778968</v>
       </c>
       <c r="AD7" t="n">
-        <v>208195.8898048413</v>
+        <v>285765.8341689727</v>
       </c>
       <c r="AE7" t="n">
-        <v>284862.8013852688</v>
+        <v>390997.4214088287</v>
       </c>
       <c r="AF7" t="n">
         <v>1.083174675081082e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>257675.8954285952</v>
+        <v>353681.1762778968</v>
       </c>
     </row>
   </sheetData>
@@ -18144,28 +18144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.6454299680092</v>
+        <v>322.4391283728118</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.5792526403125</v>
+        <v>441.1754404500751</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.4608116866775</v>
+        <v>399.0702756071387</v>
       </c>
       <c r="AD2" t="n">
-        <v>230645.4299680092</v>
+        <v>322439.1283728118</v>
       </c>
       <c r="AE2" t="n">
-        <v>315579.2526403125</v>
+        <v>441175.4404500751</v>
       </c>
       <c r="AF2" t="n">
         <v>1.555825626478895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>285460.8116866775</v>
+        <v>399070.2756071388</v>
       </c>
     </row>
   </sheetData>
@@ -18441,28 +18441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.0700780281189</v>
+        <v>542.4638115012867</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.5489482406615</v>
+        <v>742.222918710402</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.4783117770149</v>
+        <v>671.3862050650896</v>
       </c>
       <c r="AD2" t="n">
-        <v>414070.0780281189</v>
+        <v>542463.8115012867</v>
       </c>
       <c r="AE2" t="n">
-        <v>566548.9482406615</v>
+        <v>742222.9187104021</v>
       </c>
       <c r="AF2" t="n">
         <v>5.728831893857739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>512478.311777015</v>
+        <v>671386.2050650896</v>
       </c>
     </row>
     <row r="3">
@@ -18547,28 +18547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.3036834774697</v>
+        <v>455.8463237472802</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.5137805221568</v>
+        <v>623.7090506715041</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.4675530477805</v>
+        <v>564.1831342565656</v>
       </c>
       <c r="AD3" t="n">
-        <v>337303.6834774697</v>
+        <v>455846.3237472802</v>
       </c>
       <c r="AE3" t="n">
-        <v>461513.7805221568</v>
+        <v>623709.0506715041</v>
       </c>
       <c r="AF3" t="n">
         <v>6.686115041637179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>417467.5530477805</v>
+        <v>564183.1342565656</v>
       </c>
     </row>
     <row r="4">
@@ -18653,28 +18653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.7508795248221</v>
+        <v>397.5933554476322</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.7641333244726</v>
+        <v>544.0047695043417</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.7522581440484</v>
+        <v>492.0857178183359</v>
       </c>
       <c r="AD4" t="n">
-        <v>298750.8795248221</v>
+        <v>397593.3554476322</v>
       </c>
       <c r="AE4" t="n">
-        <v>408764.1333244726</v>
+        <v>544004.7695043416</v>
       </c>
       <c r="AF4" t="n">
         <v>7.366720933227667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>369752.2581440485</v>
+        <v>492085.7178183359</v>
       </c>
     </row>
     <row r="5">
@@ -18759,28 +18759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.9257208720318</v>
+        <v>365.8166293948564</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.9019883976802</v>
+        <v>500.5264510287209</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.7401144172856</v>
+        <v>452.7569090358251</v>
       </c>
       <c r="AD5" t="n">
-        <v>276925.7208720318</v>
+        <v>365816.6293948564</v>
       </c>
       <c r="AE5" t="n">
-        <v>378901.9883976802</v>
+        <v>500526.4510287209</v>
       </c>
       <c r="AF5" t="n">
         <v>7.896011075873287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.47222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>342740.1144172855</v>
+        <v>452756.9090358251</v>
       </c>
     </row>
     <row r="6">
@@ -18865,28 +18865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.0782234662546</v>
+        <v>346.9349665702984</v>
       </c>
       <c r="AB6" t="n">
-        <v>353.1140109541941</v>
+        <v>474.691726951987</v>
       </c>
       <c r="AC6" t="n">
-        <v>319.413305347352</v>
+        <v>429.3878147657118</v>
       </c>
       <c r="AD6" t="n">
-        <v>258078.2234662546</v>
+        <v>346934.9665702984</v>
       </c>
       <c r="AE6" t="n">
-        <v>353114.0109541941</v>
+        <v>474691.726951987</v>
       </c>
       <c r="AF6" t="n">
         <v>8.345926595841751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.47685185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>319413.3053473521</v>
+        <v>429387.8147657118</v>
       </c>
     </row>
     <row r="7">
@@ -18971,28 +18971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.8886609475699</v>
+        <v>331.8127238593212</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.3309813997693</v>
+        <v>454.0008073285644</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.6137789645361</v>
+        <v>410.6716074712605</v>
       </c>
       <c r="AD7" t="n">
-        <v>242888.6609475699</v>
+        <v>331812.7238593212</v>
       </c>
       <c r="AE7" t="n">
-        <v>332330.9813997693</v>
+        <v>454000.8073285644</v>
       </c>
       <c r="AF7" t="n">
         <v>8.632305194802352e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.89814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>300613.7789645361</v>
+        <v>410671.6074712605</v>
       </c>
     </row>
     <row r="8">
@@ -19077,28 +19077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>237.8451258052083</v>
+        <v>316.8517867357548</v>
       </c>
       <c r="AB8" t="n">
-        <v>325.4301941129266</v>
+        <v>433.5305931261376</v>
       </c>
       <c r="AC8" t="n">
-        <v>294.3715931310317</v>
+        <v>392.1550417821873</v>
       </c>
       <c r="AD8" t="n">
-        <v>237845.1258052083</v>
+        <v>316851.7867357548</v>
       </c>
       <c r="AE8" t="n">
-        <v>325430.1941129266</v>
+        <v>433530.5931261376</v>
       </c>
       <c r="AF8" t="n">
         <v>8.914652066896816e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>294371.5931310317</v>
+        <v>392155.0417821872</v>
       </c>
     </row>
     <row r="9">
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>223.4319032591962</v>
+        <v>312.3218007521664</v>
       </c>
       <c r="AB9" t="n">
-        <v>305.7093871589814</v>
+        <v>427.332466454515</v>
       </c>
       <c r="AC9" t="n">
-        <v>276.5329123144383</v>
+        <v>386.5484556209789</v>
       </c>
       <c r="AD9" t="n">
-        <v>223431.9032591963</v>
+        <v>312321.8007521664</v>
       </c>
       <c r="AE9" t="n">
-        <v>305709.3871589814</v>
+        <v>427332.4664545151</v>
       </c>
       <c r="AF9" t="n">
         <v>9.166131030172384e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.91435185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>276532.9123144383</v>
+        <v>386548.4556209788</v>
       </c>
     </row>
     <row r="10">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>218.5256570919136</v>
+        <v>297.4981526036791</v>
       </c>
       <c r="AB10" t="n">
-        <v>298.9964447046038</v>
+        <v>407.0500970845535</v>
       </c>
       <c r="AC10" t="n">
-        <v>270.4606436662305</v>
+        <v>368.2018071172022</v>
       </c>
       <c r="AD10" t="n">
-        <v>218525.6570919136</v>
+        <v>297498.1526036791</v>
       </c>
       <c r="AE10" t="n">
-        <v>298996.4447046039</v>
+        <v>407050.0970845535</v>
       </c>
       <c r="AF10" t="n">
         <v>9.445580098581806e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>270460.6436662305</v>
+        <v>368201.8071172023</v>
       </c>
     </row>
     <row r="11">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>218.0287049150856</v>
+        <v>297.0012004268511</v>
       </c>
       <c r="AB11" t="n">
-        <v>298.3164928122855</v>
+        <v>406.3701451922347</v>
       </c>
       <c r="AC11" t="n">
-        <v>269.8455854281963</v>
+        <v>367.5867488791679</v>
       </c>
       <c r="AD11" t="n">
-        <v>218028.7049150856</v>
+        <v>297001.2004268511</v>
       </c>
       <c r="AE11" t="n">
-        <v>298316.4928122855</v>
+        <v>406370.1451922347</v>
       </c>
       <c r="AF11" t="n">
         <v>9.479345811085739e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>269845.5854281963</v>
+        <v>367586.7488791679</v>
       </c>
     </row>
     <row r="12">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>218.7635156775957</v>
+        <v>297.7360111893612</v>
       </c>
       <c r="AB12" t="n">
-        <v>299.3218933151143</v>
+        <v>407.375545695064</v>
       </c>
       <c r="AC12" t="n">
-        <v>270.7550319181239</v>
+        <v>368.4961953690956</v>
       </c>
       <c r="AD12" t="n">
-        <v>218763.5156775957</v>
+        <v>297736.0111893612</v>
       </c>
       <c r="AE12" t="n">
-        <v>299321.8933151143</v>
+        <v>407375.545695064</v>
       </c>
       <c r="AF12" t="n">
         <v>9.430083148440076e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>270755.0319181239</v>
+        <v>368496.1953690957</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.9431754020685</v>
+        <v>702.7704701552353</v>
       </c>
       <c r="AB2" t="n">
-        <v>742.8788055474945</v>
+        <v>961.5615613113816</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.9794949829927</v>
+        <v>869.7914754599498</v>
       </c>
       <c r="AD2" t="n">
-        <v>542943.1754020685</v>
+        <v>702770.4701552354</v>
       </c>
       <c r="AE2" t="n">
-        <v>742878.8055474944</v>
+        <v>961561.5613113816</v>
       </c>
       <c r="AF2" t="n">
         <v>4.391454700782493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>671979.4949829928</v>
+        <v>869791.4754599498</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.4435571929116</v>
+        <v>556.2295083561339</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.4788883133054</v>
+        <v>761.0577524468882</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.7924821304459</v>
+        <v>688.4234687046206</v>
       </c>
       <c r="AD3" t="n">
-        <v>426443.5571929116</v>
+        <v>556229.5083561339</v>
       </c>
       <c r="AE3" t="n">
-        <v>583478.8883133054</v>
+        <v>761057.7524468882</v>
       </c>
       <c r="AF3" t="n">
         <v>5.342119429202817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.28935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>527792.4821304459</v>
+        <v>688423.4687046206</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.0998611425313</v>
+        <v>485.860305626226</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.9139812011923</v>
+        <v>664.7755048017065</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.1074538725379</v>
+        <v>601.3302636417117</v>
       </c>
       <c r="AD4" t="n">
-        <v>366099.8611425313</v>
+        <v>485860.305626226</v>
       </c>
       <c r="AE4" t="n">
-        <v>500913.9812011923</v>
+        <v>664775.5048017064</v>
       </c>
       <c r="AF4" t="n">
         <v>6.016479711138502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.45370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>453107.4538725379</v>
+        <v>601330.2636417117</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.2278249857528</v>
+        <v>438.098413435186</v>
       </c>
       <c r="AB5" t="n">
-        <v>449.0957905351718</v>
+        <v>599.425576799954</v>
       </c>
       <c r="AC5" t="n">
-        <v>406.2347185963949</v>
+        <v>542.2172410492466</v>
       </c>
       <c r="AD5" t="n">
-        <v>328227.8249857528</v>
+        <v>438098.413435186</v>
       </c>
       <c r="AE5" t="n">
-        <v>449095.7905351717</v>
+        <v>599425.5767999541</v>
       </c>
       <c r="AF5" t="n">
         <v>6.530917267394442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.68287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>406234.7185963949</v>
+        <v>542217.2410492466</v>
       </c>
     </row>
     <row r="6">
@@ -20222,28 +20222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.9620394495442</v>
+        <v>405.7739668305264</v>
       </c>
       <c r="AB6" t="n">
-        <v>418.6307604674004</v>
+        <v>555.1978429015203</v>
       </c>
       <c r="AC6" t="n">
-        <v>378.6772282403534</v>
+        <v>502.210540000065</v>
       </c>
       <c r="AD6" t="n">
-        <v>305962.0394495442</v>
+        <v>405773.9668305264</v>
       </c>
       <c r="AE6" t="n">
-        <v>418630.7604674004</v>
+        <v>555197.8429015203</v>
       </c>
       <c r="AF6" t="n">
         <v>6.957689154317909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.4212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>378677.2282403534</v>
+        <v>502210.540000065</v>
       </c>
     </row>
     <row r="7">
@@ -20328,28 +20328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.5735556904523</v>
+        <v>387.4528028791388</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.470825745562</v>
+        <v>530.1300181105235</v>
       </c>
       <c r="AC7" t="n">
-        <v>355.9185223761771</v>
+        <v>479.5351532242078</v>
       </c>
       <c r="AD7" t="n">
-        <v>287573.5556904523</v>
+        <v>387452.8028791388</v>
       </c>
       <c r="AE7" t="n">
-        <v>393470.825745562</v>
+        <v>530130.0181105235</v>
       </c>
       <c r="AF7" t="n">
         <v>7.285822571752772e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>355918.5223761771</v>
+        <v>479535.1532242078</v>
       </c>
     </row>
     <row r="8">
@@ -20434,28 +20434,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>271.2341969010453</v>
+        <v>371.0792786709511</v>
       </c>
       <c r="AB8" t="n">
-        <v>371.1145942082601</v>
+        <v>507.7270399399738</v>
       </c>
       <c r="AC8" t="n">
-        <v>335.6959381996273</v>
+        <v>459.270283847478</v>
       </c>
       <c r="AD8" t="n">
-        <v>271234.1969010453</v>
+        <v>371079.2786709511</v>
       </c>
       <c r="AE8" t="n">
-        <v>371114.5942082601</v>
+        <v>507727.0399399738</v>
       </c>
       <c r="AF8" t="n">
         <v>7.556990813909012e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.88194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>335695.9381996273</v>
+        <v>459270.283847478</v>
       </c>
     </row>
     <row r="9">
@@ -20540,28 +20540,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>266.2736832430883</v>
+        <v>356.0942693633236</v>
       </c>
       <c r="AB9" t="n">
-        <v>364.3274005790257</v>
+        <v>487.2238891133248</v>
       </c>
       <c r="AC9" t="n">
-        <v>329.5565048044809</v>
+        <v>440.7239249593715</v>
       </c>
       <c r="AD9" t="n">
-        <v>266273.6832430882</v>
+        <v>356094.2693633236</v>
       </c>
       <c r="AE9" t="n">
-        <v>364327.4005790257</v>
+        <v>487223.8891133248</v>
       </c>
       <c r="AF9" t="n">
         <v>7.77843125961301e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>329556.5048044809</v>
+        <v>440723.9249593715</v>
       </c>
     </row>
     <row r="10">
@@ -20646,28 +20646,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>251.7880691705083</v>
+        <v>341.6759750984513</v>
       </c>
       <c r="AB10" t="n">
-        <v>344.5075443445689</v>
+        <v>467.4961428098763</v>
       </c>
       <c r="AC10" t="n">
-        <v>311.6282278318013</v>
+        <v>422.8789670750584</v>
       </c>
       <c r="AD10" t="n">
-        <v>251788.0691705083</v>
+        <v>341675.9750984513</v>
       </c>
       <c r="AE10" t="n">
-        <v>344507.5443445689</v>
+        <v>467496.1428098764</v>
       </c>
       <c r="AF10" t="n">
         <v>7.992284130740959e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.90972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>311628.2278318013</v>
+        <v>422878.9670750584</v>
       </c>
     </row>
     <row r="11">
@@ -20752,28 +20752,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>247.6617048756946</v>
+        <v>337.5496108036374</v>
       </c>
       <c r="AB11" t="n">
-        <v>338.8616706740628</v>
+        <v>461.8502691393674</v>
       </c>
       <c r="AC11" t="n">
-        <v>306.521188420373</v>
+        <v>417.7719276636293</v>
       </c>
       <c r="AD11" t="n">
-        <v>247661.7048756946</v>
+        <v>337549.6108036374</v>
       </c>
       <c r="AE11" t="n">
-        <v>338861.6706740628</v>
+        <v>461850.2691393674</v>
       </c>
       <c r="AF11" t="n">
         <v>8.188393750552618e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.50462962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>306521.188420373</v>
+        <v>417771.9276636293</v>
       </c>
     </row>
     <row r="12">
@@ -20858,28 +20858,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>243.8285028005451</v>
+        <v>323.6919130788176</v>
       </c>
       <c r="AB12" t="n">
-        <v>333.6169144859056</v>
+        <v>442.8895557537929</v>
       </c>
       <c r="AC12" t="n">
-        <v>301.7769844017503</v>
+        <v>400.6207981520456</v>
       </c>
       <c r="AD12" t="n">
-        <v>243828.5028005451</v>
+        <v>323691.9130788176</v>
       </c>
       <c r="AE12" t="n">
-        <v>333616.9144859056</v>
+        <v>442889.5557537929</v>
       </c>
       <c r="AF12" t="n">
         <v>8.368394365879747e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>301776.9844017503</v>
+        <v>400620.7981520456</v>
       </c>
     </row>
     <row r="13">
@@ -20964,28 +20964,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>230.97440654681</v>
+        <v>320.8281470559719</v>
       </c>
       <c r="AB13" t="n">
-        <v>316.02937290885</v>
+        <v>438.971224740895</v>
       </c>
       <c r="AC13" t="n">
-        <v>285.8679731085336</v>
+        <v>397.0764271516066</v>
       </c>
       <c r="AD13" t="n">
-        <v>230974.40654681</v>
+        <v>320828.1470559719</v>
       </c>
       <c r="AE13" t="n">
-        <v>316029.37290885</v>
+        <v>438971.224740895</v>
       </c>
       <c r="AF13" t="n">
         <v>8.500885091169172e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.8912037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>285867.9731085337</v>
+        <v>397076.4271516066</v>
       </c>
     </row>
     <row r="14">
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>229.8080605085225</v>
+        <v>309.7387905944993</v>
       </c>
       <c r="AB14" t="n">
-        <v>314.4335268037103</v>
+        <v>423.7982780024292</v>
       </c>
       <c r="AC14" t="n">
-        <v>284.4244323158839</v>
+        <v>383.3515651544954</v>
       </c>
       <c r="AD14" t="n">
-        <v>229808.0605085226</v>
+        <v>309738.7905944993</v>
       </c>
       <c r="AE14" t="n">
-        <v>314433.5268037103</v>
+        <v>423798.2780024292</v>
       </c>
       <c r="AF14" t="n">
         <v>8.551313279120742e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>284424.4323158839</v>
+        <v>383351.5651544954</v>
       </c>
     </row>
     <row r="15">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>227.3080840119148</v>
+        <v>307.2388140978916</v>
       </c>
       <c r="AB15" t="n">
-        <v>311.0129486698742</v>
+        <v>420.3776998685914</v>
       </c>
       <c r="AC15" t="n">
-        <v>281.3303093583285</v>
+        <v>380.2574421969395</v>
       </c>
       <c r="AD15" t="n">
-        <v>227308.0840119148</v>
+        <v>307238.8140978916</v>
       </c>
       <c r="AE15" t="n">
-        <v>311012.9486698742</v>
+        <v>420377.6998685914</v>
       </c>
       <c r="AF15" t="n">
         <v>8.660574353015809e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>281330.3093583285</v>
+        <v>380257.4421969395</v>
       </c>
     </row>
     <row r="16">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>227.3848009726908</v>
+        <v>307.3155310586675</v>
       </c>
       <c r="AB16" t="n">
-        <v>311.1179162001213</v>
+        <v>420.4826673988385</v>
       </c>
       <c r="AC16" t="n">
-        <v>281.4252589348117</v>
+        <v>380.3523917734227</v>
       </c>
       <c r="AD16" t="n">
-        <v>227384.8009726908</v>
+        <v>307315.5310586675</v>
       </c>
       <c r="AE16" t="n">
-        <v>311117.9162001213</v>
+        <v>420482.6673988385</v>
       </c>
       <c r="AF16" t="n">
         <v>8.647850574111361e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH16" t="n">
-        <v>281425.2589348117</v>
+        <v>380352.3917734227</v>
       </c>
     </row>
     <row r="17">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>227.4947886360263</v>
+        <v>307.4255187220029</v>
       </c>
       <c r="AB17" t="n">
-        <v>311.2684061734101</v>
+        <v>420.6331573721274</v>
       </c>
       <c r="AC17" t="n">
-        <v>281.5613863562638</v>
+        <v>380.4885191948749</v>
       </c>
       <c r="AD17" t="n">
-        <v>227494.7886360263</v>
+        <v>307425.518722003</v>
       </c>
       <c r="AE17" t="n">
-        <v>311268.4061734101</v>
+        <v>420633.1573721273</v>
       </c>
       <c r="AF17" t="n">
         <v>8.645866131529934e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH17" t="n">
-        <v>281561.3863562638</v>
+        <v>380488.5191948749</v>
       </c>
     </row>
   </sheetData>
@@ -21685,28 +21685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6697510173261</v>
+        <v>319.8642598431812</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.717262123614</v>
+        <v>437.6523917326521</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2038953526268</v>
+        <v>395.8834617146767</v>
       </c>
       <c r="AD2" t="n">
-        <v>233669.7510173261</v>
+        <v>319864.2598431812</v>
       </c>
       <c r="AE2" t="n">
-        <v>319717.262123614</v>
+        <v>437652.3917326521</v>
       </c>
       <c r="AF2" t="n">
         <v>1.080275617369143e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289203.8953526268</v>
+        <v>395883.4617146768</v>
       </c>
     </row>
     <row r="3">
@@ -21791,28 +21791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.401357993085</v>
+        <v>280.1089082618319</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.302711440612</v>
+        <v>383.2573658167211</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.7418912611103</v>
+        <v>346.6798207282637</v>
       </c>
       <c r="AD3" t="n">
-        <v>203401.357993085</v>
+        <v>280108.9082618318</v>
       </c>
       <c r="AE3" t="n">
-        <v>278302.711440612</v>
+        <v>383257.3658167211</v>
       </c>
       <c r="AF3" t="n">
         <v>1.180452320102953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.82175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>251741.8912611103</v>
+        <v>346679.8207282637</v>
       </c>
     </row>
     <row r="4">
@@ -21897,28 +21897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.4207447907197</v>
+        <v>279.1282950594665</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.9609931955351</v>
+        <v>381.9156475716436</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.5282247222298</v>
+        <v>345.466154189383</v>
       </c>
       <c r="AD4" t="n">
-        <v>202420.7447907196</v>
+        <v>279128.2950594665</v>
       </c>
       <c r="AE4" t="n">
-        <v>276960.9931955351</v>
+        <v>381915.6475716436</v>
       </c>
       <c r="AF4" t="n">
         <v>1.189681032289093e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>250528.2247222298</v>
+        <v>345466.154189383</v>
       </c>
     </row>
   </sheetData>
@@ -22194,28 +22194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.7546295840972</v>
+        <v>600.6528291374262</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.7930553734943</v>
+        <v>821.8396997584481</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.4956128957697</v>
+        <v>743.4044722727641</v>
       </c>
       <c r="AD2" t="n">
-        <v>461754.6295840972</v>
+        <v>600652.8291374262</v>
       </c>
       <c r="AE2" t="n">
-        <v>631793.0553734943</v>
+        <v>821839.6997584481</v>
       </c>
       <c r="AF2" t="n">
         <v>5.150724130525169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>571495.6128957696</v>
+        <v>743404.4722727641</v>
       </c>
     </row>
     <row r="3">
@@ -22300,28 +22300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.1966429341535</v>
+        <v>494.2377446617947</v>
       </c>
       <c r="AB3" t="n">
-        <v>513.3605993701786</v>
+        <v>676.2378864766977</v>
       </c>
       <c r="AC3" t="n">
-        <v>464.3661842724145</v>
+        <v>611.6986916971954</v>
       </c>
       <c r="AD3" t="n">
-        <v>375196.6429341535</v>
+        <v>494237.7446617947</v>
       </c>
       <c r="AE3" t="n">
-        <v>513360.5993701787</v>
+        <v>676237.8864766976</v>
       </c>
       <c r="AF3" t="n">
         <v>6.105772782157728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>464366.1842724145</v>
+        <v>611698.6916971954</v>
       </c>
     </row>
     <row r="4">
@@ -22406,28 +22406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.6330261307104</v>
+        <v>430.8128987532122</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.0724957997109</v>
+        <v>589.457214197854</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.0725944462127</v>
+        <v>533.2002449832062</v>
       </c>
       <c r="AD4" t="n">
-        <v>321633.0261307104</v>
+        <v>430812.8987532122</v>
       </c>
       <c r="AE4" t="n">
-        <v>440072.4957997109</v>
+        <v>589457.214197854</v>
       </c>
       <c r="AF4" t="n">
         <v>6.815502384303369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.71759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>398072.5944462128</v>
+        <v>533200.2449832062</v>
       </c>
     </row>
     <row r="5">
@@ -22512,28 +22512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.2229216642806</v>
+        <v>397.4069255662342</v>
       </c>
       <c r="AB5" t="n">
-        <v>408.0417580878226</v>
+        <v>543.7496879159067</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.0988253861244</v>
+        <v>491.8549808586921</v>
       </c>
       <c r="AD5" t="n">
-        <v>298222.9216642806</v>
+        <v>397406.9255662342</v>
       </c>
       <c r="AE5" t="n">
-        <v>408041.7580878226</v>
+        <v>543749.6879159068</v>
       </c>
       <c r="AF5" t="n">
         <v>7.329318314904512e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.25925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>369098.8253861244</v>
+        <v>491854.9808586921</v>
       </c>
     </row>
     <row r="6">
@@ -22618,28 +22618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.0560637070423</v>
+        <v>368.3456841149327</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.8168174486343</v>
+        <v>503.986815270749</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.3767562746048</v>
+        <v>455.8870209712457</v>
       </c>
       <c r="AD6" t="n">
-        <v>279056.0637070423</v>
+        <v>368345.6841149327</v>
       </c>
       <c r="AE6" t="n">
-        <v>381816.8174486343</v>
+        <v>503986.815270749</v>
       </c>
       <c r="AF6" t="n">
         <v>7.732612585219653e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>345376.7562746048</v>
+        <v>455887.0209712457</v>
       </c>
     </row>
     <row r="7">
@@ -22724,28 +22724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.3663290236379</v>
+        <v>351.7232692392328</v>
       </c>
       <c r="AB7" t="n">
-        <v>358.9811861556716</v>
+        <v>481.2432939086278</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.7205255822327</v>
+        <v>435.3141093671927</v>
       </c>
       <c r="AD7" t="n">
-        <v>262366.3290236379</v>
+        <v>351723.2692392328</v>
       </c>
       <c r="AE7" t="n">
-        <v>358981.1861556716</v>
+        <v>481243.2939086278</v>
       </c>
       <c r="AF7" t="n">
         <v>8.052954616026537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.53472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>324720.5255822327</v>
+        <v>435314.1093671927</v>
       </c>
     </row>
     <row r="8">
@@ -22830,28 +22830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.0718160363088</v>
+        <v>336.3945908331259</v>
       </c>
       <c r="AB8" t="n">
-        <v>338.0545587399566</v>
+        <v>460.2699198598287</v>
       </c>
       <c r="AC8" t="n">
-        <v>305.791106116469</v>
+        <v>416.3424047012956</v>
       </c>
       <c r="AD8" t="n">
-        <v>247071.8160363088</v>
+        <v>336394.5908331259</v>
       </c>
       <c r="AE8" t="n">
-        <v>338054.5587399566</v>
+        <v>460269.9198598287</v>
       </c>
       <c r="AF8" t="n">
         <v>8.319499679740567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.96759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>305791.106116469</v>
+        <v>416342.4047012956</v>
       </c>
     </row>
     <row r="9">
@@ -22936,28 +22936,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>241.8480342123587</v>
+        <v>321.2091057074082</v>
       </c>
       <c r="AB9" t="n">
-        <v>330.9071499914425</v>
+        <v>439.4924691744997</v>
       </c>
       <c r="AC9" t="n">
-        <v>299.3258360274596</v>
+        <v>397.5479247480393</v>
       </c>
       <c r="AD9" t="n">
-        <v>241848.0342123587</v>
+        <v>321209.1057074082</v>
       </c>
       <c r="AE9" t="n">
-        <v>330907.1499914424</v>
+        <v>439492.4691744997</v>
       </c>
       <c r="AF9" t="n">
         <v>8.597145704918202e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>299325.8360274596</v>
+        <v>397547.9247480393</v>
       </c>
     </row>
     <row r="10">
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>238.2510685371016</v>
+        <v>317.612140032151</v>
       </c>
       <c r="AB10" t="n">
-        <v>325.9856228676321</v>
+        <v>434.5709420506869</v>
       </c>
       <c r="AC10" t="n">
-        <v>294.8740125449374</v>
+        <v>393.0961012655165</v>
       </c>
       <c r="AD10" t="n">
-        <v>238251.0685371016</v>
+        <v>317612.1400321511</v>
       </c>
       <c r="AE10" t="n">
-        <v>325985.6228676321</v>
+        <v>434570.9420506869</v>
       </c>
       <c r="AF10" t="n">
         <v>8.793425342225239e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>294874.0125449374</v>
+        <v>393096.1012655165</v>
       </c>
     </row>
     <row r="11">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>223.1347866550686</v>
+        <v>302.5631779578223</v>
       </c>
       <c r="AB11" t="n">
-        <v>305.3028591133547</v>
+        <v>413.9802882272403</v>
       </c>
       <c r="AC11" t="n">
-        <v>276.1651827349203</v>
+        <v>374.4705905438153</v>
       </c>
       <c r="AD11" t="n">
-        <v>223134.7866550686</v>
+        <v>302563.1779578223</v>
       </c>
       <c r="AE11" t="n">
-        <v>305302.8591133546</v>
+        <v>413980.2882272403</v>
       </c>
       <c r="AF11" t="n">
         <v>9.058018588539074e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.59027777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>276165.1827349203</v>
+        <v>374470.5905438153</v>
       </c>
     </row>
     <row r="12">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>226.0539739444664</v>
+        <v>315.3425833225024</v>
       </c>
       <c r="AB12" t="n">
-        <v>309.2970199481608</v>
+        <v>431.4656344347702</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.7781464654937</v>
+        <v>390.2871598501362</v>
       </c>
       <c r="AD12" t="n">
-        <v>226053.9739444664</v>
+        <v>315342.5833225024</v>
       </c>
       <c r="AE12" t="n">
-        <v>309297.0199481607</v>
+        <v>431465.6344347702</v>
       </c>
       <c r="AF12" t="n">
         <v>8.885404737209394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.8912037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>279778.1464654937</v>
+        <v>390287.1598501361</v>
       </c>
     </row>
     <row r="13">
@@ -23360,28 +23360,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>221.8439827296177</v>
+        <v>301.1708888058862</v>
       </c>
       <c r="AB13" t="n">
-        <v>303.5367242363035</v>
+        <v>412.075296786099</v>
       </c>
       <c r="AC13" t="n">
-        <v>274.5676052917485</v>
+        <v>372.7474088121443</v>
       </c>
       <c r="AD13" t="n">
-        <v>221843.9827296177</v>
+        <v>301170.8888058862</v>
       </c>
       <c r="AE13" t="n">
-        <v>303536.7242363035</v>
+        <v>412075.296786099</v>
       </c>
       <c r="AF13" t="n">
         <v>9.118890893707635e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.48611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>274567.6052917485</v>
+        <v>372747.4088121442</v>
       </c>
     </row>
     <row r="14">
@@ -23466,28 +23466,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>222.0156642322481</v>
+        <v>301.3425703085166</v>
       </c>
       <c r="AB14" t="n">
-        <v>303.7716264422556</v>
+        <v>412.3101989920513</v>
       </c>
       <c r="AC14" t="n">
-        <v>274.780088760852</v>
+        <v>372.9598922812478</v>
       </c>
       <c r="AD14" t="n">
-        <v>222015.6642322481</v>
+        <v>301342.5703085166</v>
       </c>
       <c r="AE14" t="n">
-        <v>303771.6264422556</v>
+        <v>412310.1989920512</v>
       </c>
       <c r="AF14" t="n">
         <v>9.111937544219441e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>274780.088760852</v>
+        <v>372959.8922812478</v>
       </c>
     </row>
   </sheetData>
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.4770647533312</v>
+        <v>353.9538036688531</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.2914790817551</v>
+        <v>484.2952095194683</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.6692747624939</v>
+        <v>438.0747544355251</v>
       </c>
       <c r="AD2" t="n">
-        <v>257477.0647533312</v>
+        <v>353953.8036688531</v>
       </c>
       <c r="AE2" t="n">
-        <v>352291.4790817551</v>
+        <v>484295.2095194683</v>
       </c>
       <c r="AF2" t="n">
         <v>9.526462920830864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.50694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>318669.2747624939</v>
+        <v>438074.754435525</v>
       </c>
     </row>
     <row r="3">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.5855519509412</v>
+        <v>311.4112004330327</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.2878601944142</v>
+        <v>426.0865429250252</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.9607380987707</v>
+        <v>385.421441284479</v>
       </c>
       <c r="AD3" t="n">
-        <v>224585.5519509412</v>
+        <v>311411.2004330326</v>
       </c>
       <c r="AE3" t="n">
-        <v>307287.8601944142</v>
+        <v>426086.5429250252</v>
       </c>
       <c r="AF3" t="n">
         <v>1.052169000762994e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>277960.7380987707</v>
+        <v>385421.441284479</v>
       </c>
     </row>
     <row r="4">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.1226977162461</v>
+        <v>284.3314211836882</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.3944126237602</v>
+        <v>389.0347942805276</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.347647629588</v>
+        <v>351.9058595281564</v>
       </c>
       <c r="AD4" t="n">
-        <v>207122.6977162461</v>
+        <v>284331.4211836882</v>
       </c>
       <c r="AE4" t="n">
-        <v>283394.4126237602</v>
+        <v>389034.7942805276</v>
       </c>
       <c r="AF4" t="n">
         <v>1.115552858991882e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>256347.647629588</v>
+        <v>351905.8595281565</v>
       </c>
     </row>
     <row r="5">
@@ -24081,28 +24081,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.2653465854563</v>
+        <v>282.4740700528983</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.853102866066</v>
+        <v>386.4934845228321</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.0488769084167</v>
+        <v>349.6070888069847</v>
       </c>
       <c r="AD5" t="n">
-        <v>205265.3465854563</v>
+        <v>282474.0700528983</v>
       </c>
       <c r="AE5" t="n">
-        <v>280853.102866066</v>
+        <v>386493.4845228322</v>
       </c>
       <c r="AF5" t="n">
         <v>1.132518168474577e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.56712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>254048.8769084167</v>
+        <v>349607.0888069847</v>
       </c>
     </row>
     <row r="6">
@@ -24187,28 +24187,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>205.3421112433558</v>
+        <v>282.5508347107979</v>
       </c>
       <c r="AB6" t="n">
-        <v>280.9581356576218</v>
+        <v>386.598517314388</v>
       </c>
       <c r="AC6" t="n">
-        <v>254.1438855177609</v>
+        <v>349.702097416329</v>
       </c>
       <c r="AD6" t="n">
-        <v>205342.1112433558</v>
+        <v>282550.8347107979</v>
       </c>
       <c r="AE6" t="n">
-        <v>280958.1356576218</v>
+        <v>386598.517314388</v>
       </c>
       <c r="AF6" t="n">
         <v>1.132396335013301e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.56712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>254143.8855177609</v>
+        <v>349702.097416329</v>
       </c>
     </row>
   </sheetData>
@@ -24484,28 +24484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.701903054501</v>
+        <v>427.9916025724988</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.7984921285902</v>
+        <v>585.5969922965988</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.9201798973884</v>
+        <v>529.7084372423514</v>
       </c>
       <c r="AD2" t="n">
-        <v>320701.903054501</v>
+        <v>427991.6025724988</v>
       </c>
       <c r="AE2" t="n">
-        <v>438798.4921285902</v>
+        <v>585596.9922965989</v>
       </c>
       <c r="AF2" t="n">
         <v>7.500615031485207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>396920.1798973884</v>
+        <v>529708.4372423514</v>
       </c>
     </row>
     <row r="3">
@@ -24590,28 +24590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.5542034616685</v>
+        <v>367.1483878105996</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.8159530684251</v>
+        <v>502.3486216461754</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.616676144015</v>
+        <v>454.4051742469823</v>
       </c>
       <c r="AD3" t="n">
-        <v>269554.2034616685</v>
+        <v>367148.3878105996</v>
       </c>
       <c r="AE3" t="n">
-        <v>368815.9530684251</v>
+        <v>502348.6216461754</v>
       </c>
       <c r="AF3" t="n">
         <v>8.504176528804024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>333616.676144015</v>
+        <v>454405.1742469823</v>
       </c>
     </row>
     <row r="4">
@@ -24696,28 +24696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.1713987462034</v>
+        <v>335.9354283106619</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.5590563137991</v>
+        <v>459.6416734397727</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.1520165534401</v>
+        <v>415.7741172378204</v>
       </c>
       <c r="AD4" t="n">
-        <v>248171.3987462034</v>
+        <v>335935.4283106619</v>
       </c>
       <c r="AE4" t="n">
-        <v>339559.0563137992</v>
+        <v>459641.6734397727</v>
       </c>
       <c r="AF4" t="n">
         <v>9.188353783563245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.44212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>307152.0165534401</v>
+        <v>415774.1172378204</v>
       </c>
     </row>
     <row r="5">
@@ -24802,28 +24802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.3583772423542</v>
+        <v>308.3937372488221</v>
       </c>
       <c r="AB5" t="n">
-        <v>315.186494437199</v>
+        <v>421.9579166753079</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.1055377752295</v>
+        <v>381.6868453294713</v>
       </c>
       <c r="AD5" t="n">
-        <v>230358.3772423542</v>
+        <v>308393.7372488221</v>
       </c>
       <c r="AE5" t="n">
-        <v>315186.494437199</v>
+        <v>421957.9166753079</v>
       </c>
       <c r="AF5" t="n">
         <v>9.712354372244683e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>285105.5377752295</v>
+        <v>381686.8453294713</v>
       </c>
     </row>
     <row r="6">
@@ -24908,28 +24908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>214.5692286098473</v>
+        <v>292.6719084240195</v>
       </c>
       <c r="AB6" t="n">
-        <v>293.5830847101377</v>
+        <v>400.4466168790769</v>
       </c>
       <c r="AC6" t="n">
-        <v>265.563927151936</v>
+        <v>362.2285537944937</v>
       </c>
       <c r="AD6" t="n">
-        <v>214569.2286098473</v>
+        <v>292671.9084240195</v>
       </c>
       <c r="AE6" t="n">
-        <v>293583.0847101376</v>
+        <v>400446.6168790769</v>
       </c>
       <c r="AF6" t="n">
         <v>1.013598496705715e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.81018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>265563.9271519359</v>
+        <v>362228.5537944937</v>
       </c>
     </row>
     <row r="7">
@@ -25014,28 +25014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>211.2796754332804</v>
+        <v>289.2808700209673</v>
       </c>
       <c r="AB7" t="n">
-        <v>289.0821729291173</v>
+        <v>395.8068485339651</v>
       </c>
       <c r="AC7" t="n">
-        <v>261.4925760742254</v>
+        <v>358.0315984282836</v>
       </c>
       <c r="AD7" t="n">
-        <v>211279.6754332804</v>
+        <v>289280.8700209673</v>
       </c>
       <c r="AE7" t="n">
-        <v>289082.1729291173</v>
+        <v>395806.8485339651</v>
       </c>
       <c r="AF7" t="n">
         <v>1.036372102211157e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>261492.5760742254</v>
+        <v>358031.5984282836</v>
       </c>
     </row>
     <row r="8">
@@ -25120,28 +25120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>210.9275859418822</v>
+        <v>288.9287805295691</v>
       </c>
       <c r="AB8" t="n">
-        <v>288.6004285538945</v>
+        <v>395.325104158742</v>
       </c>
       <c r="AC8" t="n">
-        <v>261.0568087060412</v>
+        <v>357.5958310600993</v>
       </c>
       <c r="AD8" t="n">
-        <v>210927.5859418822</v>
+        <v>288928.7805295691</v>
       </c>
       <c r="AE8" t="n">
-        <v>288600.4285538945</v>
+        <v>395325.1041587419</v>
       </c>
       <c r="AF8" t="n">
         <v>1.039777759934159e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.40509259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>261056.8087060413</v>
+        <v>357595.8310600993</v>
       </c>
     </row>
   </sheetData>
@@ -25417,28 +25417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.5338111158516</v>
+        <v>286.6244272217983</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.0616484648004</v>
+        <v>392.1721863021568</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.5694490324675</v>
+        <v>354.7438232585986</v>
       </c>
       <c r="AD2" t="n">
-        <v>210533.8111158517</v>
+        <v>286624.4272217983</v>
       </c>
       <c r="AE2" t="n">
-        <v>288061.6484648004</v>
+        <v>392172.1863021568</v>
       </c>
       <c r="AF2" t="n">
         <v>1.241043205352182e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>260569.4490324675</v>
+        <v>354743.8232585986</v>
       </c>
     </row>
     <row r="3">
@@ -25523,28 +25523,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.6207121925706</v>
+        <v>285.230059257866</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.1298650660295</v>
+        <v>390.2643505387315</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.0627340843808</v>
+        <v>353.0180686627703</v>
       </c>
       <c r="AD3" t="n">
-        <v>199620.7121925706</v>
+        <v>285230.059257866</v>
       </c>
       <c r="AE3" t="n">
-        <v>273129.8650660295</v>
+        <v>390264.3505387316</v>
       </c>
       <c r="AF3" t="n">
         <v>1.256127365132426e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>247062.7340843808</v>
+        <v>353018.0686627703</v>
       </c>
     </row>
   </sheetData>
@@ -25820,28 +25820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.2860858642989</v>
+        <v>289.8603207633419</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.8814792623308</v>
+        <v>396.5996786032445</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.0745451012485</v>
+        <v>358.7487619084949</v>
       </c>
       <c r="AD2" t="n">
-        <v>205286.0858642989</v>
+        <v>289860.3207633419</v>
       </c>
       <c r="AE2" t="n">
-        <v>280881.4792623308</v>
+        <v>396599.6786032445</v>
       </c>
       <c r="AF2" t="n">
         <v>1.372648877262909e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.55092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>254074.5451012485</v>
+        <v>358748.7619084949</v>
       </c>
     </row>
   </sheetData>
@@ -44490,28 +44490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.2836891869246</v>
+        <v>575.8413156057769</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.3108351403856</v>
+        <v>787.8914923377221</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.2088887691176</v>
+        <v>712.6962341216638</v>
       </c>
       <c r="AD2" t="n">
-        <v>437283.6891869246</v>
+        <v>575841.315605777</v>
       </c>
       <c r="AE2" t="n">
-        <v>598310.8351403857</v>
+        <v>787891.4923377221</v>
       </c>
       <c r="AF2" t="n">
         <v>5.431896281941793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.41203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>541208.8887691176</v>
+        <v>712696.2341216638</v>
       </c>
     </row>
     <row r="3">
@@ -44596,28 +44596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.7593305881448</v>
+        <v>464.6652999022477</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.7656111046692</v>
+        <v>635.7755629124997</v>
       </c>
       <c r="AC3" t="n">
-        <v>440.3093843606648</v>
+        <v>575.0980355047368</v>
       </c>
       <c r="AD3" t="n">
-        <v>355759.3305881448</v>
+        <v>464665.2999022477</v>
       </c>
       <c r="AE3" t="n">
-        <v>486765.6111046692</v>
+        <v>635775.5629124998</v>
       </c>
       <c r="AF3" t="n">
         <v>6.397093029386696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>440309.3843606648</v>
+        <v>575098.0355047368</v>
       </c>
     </row>
     <row r="4">
@@ -44702,28 +44702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.9350554139893</v>
+        <v>413.9343620806553</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.90803677148</v>
+        <v>566.3632556939767</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.7827785252372</v>
+        <v>512.3103414663647</v>
       </c>
       <c r="AD4" t="n">
-        <v>314935.0554139893</v>
+        <v>413934.3620806552</v>
       </c>
       <c r="AE4" t="n">
-        <v>430908.03677148</v>
+        <v>566363.2556939768</v>
       </c>
       <c r="AF4" t="n">
         <v>7.08715665159692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.24305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>389782.7785252372</v>
+        <v>512310.3414663646</v>
       </c>
     </row>
     <row r="5">
@@ -44808,28 +44808,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>282.9225625736558</v>
+        <v>381.9550236292454</v>
       </c>
       <c r="AB5" t="n">
-        <v>387.1071317758262</v>
+        <v>522.6077139959166</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.1621704274123</v>
+        <v>472.7307672566789</v>
       </c>
       <c r="AD5" t="n">
-        <v>282922.5625736558</v>
+        <v>381955.0236292453</v>
       </c>
       <c r="AE5" t="n">
-        <v>387107.1317758262</v>
+        <v>522607.7139959166</v>
       </c>
       <c r="AF5" t="n">
         <v>7.584379218462477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.91203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>350162.1704274123</v>
+        <v>472730.7672566789</v>
       </c>
     </row>
     <row r="6">
@@ -44914,28 +44914,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.7233651552487</v>
+        <v>362.7216607920574</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.8379428591504</v>
+        <v>496.291778445993</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.4000760319058</v>
+        <v>448.9263876609925</v>
       </c>
       <c r="AD6" t="n">
-        <v>263723.3651552487</v>
+        <v>362721.6607920574</v>
       </c>
       <c r="AE6" t="n">
-        <v>360837.9428591504</v>
+        <v>496291.778445993</v>
       </c>
       <c r="AF6" t="n">
         <v>8.01356210706054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.90509259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>326400.0760319058</v>
+        <v>448926.3876609924</v>
       </c>
     </row>
     <row r="7">
@@ -45020,28 +45020,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.5196992303282</v>
+        <v>346.5781778307794</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.3498134540826</v>
+        <v>474.2035528581687</v>
       </c>
       <c r="AC7" t="n">
-        <v>318.7220417841993</v>
+        <v>428.9462313222509</v>
       </c>
       <c r="AD7" t="n">
-        <v>257519.6992303281</v>
+        <v>346578.1778307794</v>
       </c>
       <c r="AE7" t="n">
-        <v>352349.8134540826</v>
+        <v>474203.5528581687</v>
       </c>
       <c r="AF7" t="n">
         <v>8.336657628450994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.21064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>318722.0417841993</v>
+        <v>428946.2313222509</v>
       </c>
     </row>
     <row r="8">
@@ -45126,28 +45126,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>242.520939785969</v>
+        <v>331.6467381941244</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.8278490837544</v>
+        <v>453.7736984186714</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.1586648906108</v>
+        <v>410.4661735169784</v>
       </c>
       <c r="AD8" t="n">
-        <v>242520.939785969</v>
+        <v>331646.7381941244</v>
       </c>
       <c r="AE8" t="n">
-        <v>331827.8490837544</v>
+        <v>453773.6984186714</v>
       </c>
       <c r="AF8" t="n">
         <v>8.60125637726903e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>300158.6648906108</v>
+        <v>410466.1735169783</v>
       </c>
     </row>
     <row r="9">
@@ -45232,28 +45232,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>237.9906859735494</v>
+        <v>317.1766673453441</v>
       </c>
       <c r="AB9" t="n">
-        <v>325.6293559569123</v>
+        <v>433.9751091088986</v>
       </c>
       <c r="AC9" t="n">
-        <v>294.5517472481529</v>
+        <v>392.5571337834357</v>
       </c>
       <c r="AD9" t="n">
-        <v>237990.6859735494</v>
+        <v>317176.6673453441</v>
       </c>
       <c r="AE9" t="n">
-        <v>325629.3559569123</v>
+        <v>433975.1091088986</v>
       </c>
       <c r="AF9" t="n">
         <v>8.848256520779264e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>294551.7472481529</v>
+        <v>392557.1337834357</v>
       </c>
     </row>
     <row r="10">
@@ -45338,28 +45338,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>223.1433850526486</v>
+        <v>302.3966862321475</v>
       </c>
       <c r="AB10" t="n">
-        <v>305.3146238202581</v>
+        <v>413.7524869030755</v>
       </c>
       <c r="AC10" t="n">
-        <v>276.1758246347088</v>
+        <v>374.2645302583077</v>
       </c>
       <c r="AD10" t="n">
-        <v>223143.3850526486</v>
+        <v>302396.6862321476</v>
       </c>
       <c r="AE10" t="n">
-        <v>305314.6238202581</v>
+        <v>413752.4869030755</v>
       </c>
       <c r="AF10" t="n">
         <v>9.129214536503144e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.71759259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>276175.8246347088</v>
+        <v>374264.5302583077</v>
       </c>
     </row>
     <row r="11">
@@ -45444,28 +45444,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>220.6563376290196</v>
+        <v>299.8081535820334</v>
       </c>
       <c r="AB11" t="n">
-        <v>301.9117358144621</v>
+        <v>410.2107423331884</v>
       </c>
       <c r="AC11" t="n">
-        <v>273.0977034842016</v>
+        <v>371.0608048193009</v>
       </c>
       <c r="AD11" t="n">
-        <v>220656.3376290196</v>
+        <v>299808.1535820334</v>
       </c>
       <c r="AE11" t="n">
-        <v>301911.7358144621</v>
+        <v>410210.7423331884</v>
       </c>
       <c r="AF11" t="n">
         <v>9.255750987343059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.49768518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>273097.7034842016</v>
+        <v>371060.8048193009</v>
       </c>
     </row>
     <row r="12">
@@ -45550,28 +45550,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>220.2395175293435</v>
+        <v>299.3913334823573</v>
       </c>
       <c r="AB12" t="n">
-        <v>301.3414241652806</v>
+        <v>409.6404306840066</v>
       </c>
       <c r="AC12" t="n">
-        <v>272.5818215783803</v>
+        <v>370.5449229134796</v>
       </c>
       <c r="AD12" t="n">
-        <v>220239.5175293435</v>
+        <v>299391.3334823573</v>
       </c>
       <c r="AE12" t="n">
-        <v>301341.4241652805</v>
+        <v>409640.4306840066</v>
       </c>
       <c r="AF12" t="n">
         <v>9.278183012418498e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.46296296296296</v>
       </c>
       <c r="AH12" t="n">
-        <v>272581.8215783803</v>
+        <v>370544.9229134796</v>
       </c>
     </row>
     <row r="13">
@@ -45656,28 +45656,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>220.2823933587912</v>
+        <v>299.4342093118049</v>
       </c>
       <c r="AB13" t="n">
-        <v>301.4000887666789</v>
+        <v>409.699095285405</v>
       </c>
       <c r="AC13" t="n">
-        <v>272.6348873125575</v>
+        <v>370.5979886476568</v>
       </c>
       <c r="AD13" t="n">
-        <v>220282.3933587912</v>
+        <v>299434.2093118049</v>
       </c>
       <c r="AE13" t="n">
-        <v>301400.0887666789</v>
+        <v>409699.095285405</v>
       </c>
       <c r="AF13" t="n">
         <v>9.268764040563617e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>272634.8873125575</v>
+        <v>370597.9886476569</v>
       </c>
     </row>
   </sheetData>
@@ -45953,28 +45953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.6253829634649</v>
+        <v>296.277604495853</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.923429340341</v>
+        <v>405.3800893166434</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.1581055577821</v>
+        <v>366.691182546791</v>
       </c>
       <c r="AD2" t="n">
-        <v>212625.3829634649</v>
+        <v>296277.604495853</v>
       </c>
       <c r="AE2" t="n">
-        <v>290923.429340341</v>
+        <v>405380.0893166434</v>
       </c>
       <c r="AF2" t="n">
         <v>1.465178066398708e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.40740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>263158.1055577821</v>
+        <v>366691.182546791</v>
       </c>
     </row>
   </sheetData>
@@ -46250,28 +46250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.5554856685759</v>
+        <v>350.7488704161722</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.8210692194796</v>
+        <v>479.9100784514741</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.1027075256672</v>
+        <v>434.1081341220902</v>
       </c>
       <c r="AD2" t="n">
-        <v>250555.4856685759</v>
+        <v>350748.8704161722</v>
       </c>
       <c r="AE2" t="n">
-        <v>342821.0692194796</v>
+        <v>479910.0784514741</v>
       </c>
       <c r="AF2" t="n">
         <v>1.576680680692798e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.40046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>310102.7075256672</v>
+        <v>434108.1341220902</v>
       </c>
     </row>
   </sheetData>
@@ -46547,28 +46547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.3721976239019</v>
+        <v>337.5082187085152</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.2560893786875</v>
+        <v>461.7936346487307</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.7369117258164</v>
+        <v>417.720698289292</v>
       </c>
       <c r="AD2" t="n">
-        <v>241372.1976239019</v>
+        <v>337508.2187085152</v>
       </c>
       <c r="AE2" t="n">
-        <v>330256.0893786876</v>
+        <v>461793.6346487307</v>
       </c>
       <c r="AF2" t="n">
         <v>1.007904356477311e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>298736.9117258164</v>
+        <v>417720.698289292</v>
       </c>
     </row>
     <row r="3">
@@ -46653,28 +46653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.0207067746149</v>
+        <v>295.9168685046507</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.673793520526</v>
+        <v>404.8865144189318</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.0733472618263</v>
+        <v>366.2447137445802</v>
       </c>
       <c r="AD3" t="n">
-        <v>219020.7067746149</v>
+        <v>295916.8685046507</v>
       </c>
       <c r="AE3" t="n">
-        <v>299673.793520526</v>
+        <v>404886.5144189318</v>
       </c>
       <c r="AF3" t="n">
         <v>1.109859818445179e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.33101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>271073.3472618263</v>
+        <v>366244.7137445802</v>
       </c>
     </row>
     <row r="4">
@@ -46759,28 +46759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.8884284173187</v>
+        <v>280.8519099550588</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.9691426830788</v>
+        <v>384.2739735123154</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.3447192411385</v>
+        <v>347.5994048122084</v>
       </c>
       <c r="AD4" t="n">
-        <v>203888.4284173188</v>
+        <v>280851.9099550588</v>
       </c>
       <c r="AE4" t="n">
-        <v>278969.1426830788</v>
+        <v>384273.9735123154</v>
       </c>
       <c r="AF4" t="n">
         <v>1.159905841552122e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>252344.7192411385</v>
+        <v>347599.4048122084</v>
       </c>
     </row>
     <row r="5">
@@ -46865,28 +46865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.5555489976232</v>
+        <v>280.5190305353632</v>
       </c>
       <c r="AB5" t="n">
-        <v>278.5136823754481</v>
+        <v>383.8185132046845</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.9327274260253</v>
+        <v>347.1874129970951</v>
       </c>
       <c r="AD5" t="n">
-        <v>203555.5489976232</v>
+        <v>280519.0305353632</v>
       </c>
       <c r="AE5" t="n">
-        <v>278513.6823754481</v>
+        <v>383818.5132046844</v>
       </c>
       <c r="AF5" t="n">
         <v>1.164071123825729e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.56712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>251932.7274260253</v>
+        <v>347187.4129970951</v>
       </c>
     </row>
   </sheetData>
@@ -47162,28 +47162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.2024981157439</v>
+        <v>408.2679494195223</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.1185460383505</v>
+        <v>558.610219906531</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.7865304164617</v>
+        <v>505.2972445330187</v>
       </c>
       <c r="AD2" t="n">
-        <v>301202.4981157439</v>
+        <v>408267.9494195223</v>
       </c>
       <c r="AE2" t="n">
-        <v>412118.5460383506</v>
+        <v>558610.219906531</v>
       </c>
       <c r="AF2" t="n">
         <v>7.969921340160965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.54398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>372786.5304164618</v>
+        <v>505297.2445330187</v>
       </c>
     </row>
     <row r="3">
@@ -47268,28 +47268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.2610595646497</v>
+        <v>350.8206988935846</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.2053959546096</v>
+        <v>480.0083573431185</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.8278985161493</v>
+        <v>434.1970334142513</v>
       </c>
       <c r="AD3" t="n">
-        <v>263261.0595646497</v>
+        <v>350820.6988935845</v>
       </c>
       <c r="AE3" t="n">
-        <v>360205.3959546096</v>
+        <v>480008.3573431185</v>
       </c>
       <c r="AF3" t="n">
         <v>8.928966324690784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.34490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>325827.8985161493</v>
+        <v>434197.0334142513</v>
       </c>
     </row>
     <row r="4">
@@ -47374,28 +47374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.9421259985122</v>
+        <v>320.799601953271</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.40413464118</v>
+        <v>438.9321680720585</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.6799505632578</v>
+        <v>397.0410979964275</v>
       </c>
       <c r="AD4" t="n">
-        <v>242942.1259985122</v>
+        <v>320799.601953271</v>
       </c>
       <c r="AE4" t="n">
-        <v>332404.1346411799</v>
+        <v>438932.1680720585</v>
       </c>
       <c r="AF4" t="n">
         <v>9.602618312201324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.06018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>300679.9505632577</v>
+        <v>397041.0979964276</v>
       </c>
     </row>
     <row r="5">
@@ -47480,28 +47480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.3914429800292</v>
+        <v>303.2147535160069</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.3905158538148</v>
+        <v>414.8718026514333</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.9581578496255</v>
+        <v>375.2770200826118</v>
       </c>
       <c r="AD5" t="n">
-        <v>225391.4429800292</v>
+        <v>303214.7535160069</v>
       </c>
       <c r="AE5" t="n">
-        <v>308390.5158538148</v>
+        <v>414871.8026514333</v>
       </c>
       <c r="AF5" t="n">
         <v>1.015387816167435e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.13425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>278958.1578496255</v>
+        <v>375277.0200826118</v>
       </c>
     </row>
     <row r="6">
@@ -47586,28 +47586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>210.3909155046992</v>
+        <v>288.2815458483812</v>
       </c>
       <c r="AB6" t="n">
-        <v>287.8661323855124</v>
+        <v>394.4395291139617</v>
       </c>
       <c r="AC6" t="n">
-        <v>260.3925927333781</v>
+        <v>356.7947740546805</v>
       </c>
       <c r="AD6" t="n">
-        <v>210390.9155046992</v>
+        <v>288281.5458483812</v>
       </c>
       <c r="AE6" t="n">
-        <v>287866.1323855124</v>
+        <v>394439.5291139617</v>
       </c>
       <c r="AF6" t="n">
         <v>1.053718486912364e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.54398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>260392.5927333781</v>
+        <v>356794.7740546805</v>
       </c>
     </row>
     <row r="7">
@@ -47692,28 +47692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>209.5032179841405</v>
+        <v>287.2923631013373</v>
       </c>
       <c r="AB7" t="n">
-        <v>286.651545475434</v>
+        <v>393.0860856397935</v>
       </c>
       <c r="AC7" t="n">
-        <v>259.2939242933138</v>
+        <v>355.570501326117</v>
       </c>
       <c r="AD7" t="n">
-        <v>209503.2179841406</v>
+        <v>287292.3631013373</v>
       </c>
       <c r="AE7" t="n">
-        <v>286651.545475434</v>
+        <v>393086.0856397934</v>
       </c>
       <c r="AF7" t="n">
         <v>1.060326247428378e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>259293.9242933138</v>
+        <v>355570.501326117</v>
       </c>
     </row>
     <row r="8">
@@ -47798,28 +47798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>209.6146958295439</v>
+        <v>287.4038409467406</v>
       </c>
       <c r="AB8" t="n">
-        <v>286.8040743815702</v>
+        <v>393.2386145459297</v>
       </c>
       <c r="AC8" t="n">
-        <v>259.431896054724</v>
+        <v>355.7084730875272</v>
       </c>
       <c r="AD8" t="n">
-        <v>209614.6958295439</v>
+        <v>287403.8409467406</v>
       </c>
       <c r="AE8" t="n">
-        <v>286804.0743815702</v>
+        <v>393238.6145459297</v>
       </c>
       <c r="AF8" t="n">
         <v>1.060269649907898e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>259431.896054724</v>
+        <v>355708.4730875273</v>
       </c>
     </row>
   </sheetData>
@@ -48095,28 +48095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.4161009615882</v>
+        <v>488.4683146447231</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.8196509406878</v>
+        <v>668.3438977980516</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.4494947807555</v>
+        <v>604.5580942187568</v>
       </c>
       <c r="AD2" t="n">
-        <v>370416.1009615882</v>
+        <v>488468.3146447231</v>
       </c>
       <c r="AE2" t="n">
-        <v>506819.6509406879</v>
+        <v>668343.8977980516</v>
       </c>
       <c r="AF2" t="n">
         <v>6.374402732397708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>458449.4947807555</v>
+        <v>604558.0942187568</v>
       </c>
     </row>
     <row r="3">
@@ -48201,28 +48201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.8664797184508</v>
+        <v>419.0468435092103</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.3412320119526</v>
+        <v>573.3583783312882</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.7472617988995</v>
+        <v>518.6378594168874</v>
       </c>
       <c r="AD3" t="n">
-        <v>310866.4797184508</v>
+        <v>419046.8435092103</v>
       </c>
       <c r="AE3" t="n">
-        <v>425341.2320119526</v>
+        <v>573358.3783312882</v>
       </c>
       <c r="AF3" t="n">
         <v>7.351526678848894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.54398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>384747.2617988995</v>
+        <v>518637.8594168874</v>
       </c>
     </row>
     <row r="4">
@@ -48307,28 +48307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.6046157530244</v>
+        <v>373.9472950701893</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.0943940908098</v>
+        <v>511.6511865053652</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.1050343740883</v>
+        <v>462.8199153722428</v>
       </c>
       <c r="AD4" t="n">
-        <v>275604.6157530244</v>
+        <v>373947.2950701893</v>
       </c>
       <c r="AE4" t="n">
-        <v>377094.3940908098</v>
+        <v>511651.1865053652</v>
       </c>
       <c r="AF4" t="n">
         <v>8.038044985777271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>341105.0343740883</v>
+        <v>462819.9153722428</v>
       </c>
     </row>
     <row r="5">
@@ -48413,28 +48413,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.5621273801626</v>
+        <v>344.101287642517</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.6713772867126</v>
+        <v>470.814562429905</v>
       </c>
       <c r="AC5" t="n">
-        <v>316.2992318054334</v>
+        <v>425.8806813839827</v>
       </c>
       <c r="AD5" t="n">
-        <v>255562.1273801626</v>
+        <v>344101.287642517</v>
       </c>
       <c r="AE5" t="n">
-        <v>349671.3772867126</v>
+        <v>470814.5624299051</v>
       </c>
       <c r="AF5" t="n">
         <v>8.576976863293753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>316299.2318054334</v>
+        <v>425880.6813839827</v>
       </c>
     </row>
     <row r="6">
@@ -48519,28 +48519,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>238.9859404756636</v>
+        <v>327.4909353192369</v>
       </c>
       <c r="AB6" t="n">
-        <v>326.991107074234</v>
+        <v>448.087545584167</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.7835347500675</v>
+        <v>405.3226991284334</v>
       </c>
       <c r="AD6" t="n">
-        <v>238985.9404756636</v>
+        <v>327490.9353192369</v>
       </c>
       <c r="AE6" t="n">
-        <v>326991.1070742341</v>
+        <v>448087.545584167</v>
       </c>
       <c r="AF6" t="n">
         <v>8.958926888836304e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.86342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>295783.5347500675</v>
+        <v>405322.6991284334</v>
       </c>
     </row>
     <row r="7">
@@ -48625,28 +48625,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.9522944056309</v>
+        <v>311.586450386686</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.7356063355413</v>
+        <v>426.326327643096</v>
       </c>
       <c r="AC7" t="n">
-        <v>288.3159274152049</v>
+        <v>385.638341285597</v>
       </c>
       <c r="AD7" t="n">
-        <v>232952.2944056309</v>
+        <v>311586.450386686</v>
       </c>
       <c r="AE7" t="n">
-        <v>318735.6063355413</v>
+        <v>426326.327643096</v>
       </c>
       <c r="AF7" t="n">
         <v>9.332655919637079e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>288315.9274152049</v>
+        <v>385638.341285597</v>
       </c>
     </row>
     <row r="8">
@@ -48731,28 +48731,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.7707826952518</v>
+        <v>297.472258484011</v>
       </c>
       <c r="AB8" t="n">
-        <v>299.3318363692694</v>
+        <v>407.0146676076556</v>
       </c>
       <c r="AC8" t="n">
-        <v>270.7640260211456</v>
+        <v>368.169758979854</v>
       </c>
       <c r="AD8" t="n">
-        <v>218770.7826952518</v>
+        <v>297472.2584840111</v>
       </c>
       <c r="AE8" t="n">
-        <v>299331.8363692694</v>
+        <v>407014.6676076556</v>
       </c>
       <c r="AF8" t="n">
         <v>9.584374949111483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>270764.0260211456</v>
+        <v>368169.7589798539</v>
       </c>
     </row>
     <row r="9">
@@ -48837,28 +48837,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>215.88051187653</v>
+        <v>294.480502438804</v>
       </c>
       <c r="AB9" t="n">
-        <v>295.3772403253469</v>
+        <v>402.9212149996418</v>
       </c>
       <c r="AC9" t="n">
-        <v>267.1868510733434</v>
+        <v>364.4669797435521</v>
       </c>
       <c r="AD9" t="n">
-        <v>215880.51187653</v>
+        <v>294480.502438804</v>
       </c>
       <c r="AE9" t="n">
-        <v>295377.2403253469</v>
+        <v>402921.2149996419</v>
       </c>
       <c r="AF9" t="n">
         <v>9.772283400352096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.45138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>267186.8510733434</v>
+        <v>364466.9797435522</v>
       </c>
     </row>
     <row r="10">
@@ -48943,28 +48943,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>215.7069923136726</v>
+        <v>294.3069828759466</v>
       </c>
       <c r="AB10" t="n">
-        <v>295.1398232043027</v>
+        <v>402.6837978785975</v>
       </c>
       <c r="AC10" t="n">
-        <v>266.9720927091146</v>
+        <v>364.2522213793233</v>
       </c>
       <c r="AD10" t="n">
-        <v>215706.9923136726</v>
+        <v>294306.9828759466</v>
       </c>
       <c r="AE10" t="n">
-        <v>295139.8232043027</v>
+        <v>402683.7978785975</v>
       </c>
       <c r="AF10" t="n">
         <v>9.78428866251469e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>266972.0927091146</v>
+        <v>364252.2213793233</v>
       </c>
     </row>
     <row r="11">
@@ -49049,28 +49049,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>215.8696976666656</v>
+        <v>294.4696882289397</v>
       </c>
       <c r="AB11" t="n">
-        <v>295.3624438463212</v>
+        <v>402.9064185206162</v>
       </c>
       <c r="AC11" t="n">
-        <v>267.173466749509</v>
+        <v>364.4535954197177</v>
       </c>
       <c r="AD11" t="n">
-        <v>215869.6976666657</v>
+        <v>294469.6882289397</v>
       </c>
       <c r="AE11" t="n">
-        <v>295362.4438463213</v>
+        <v>402906.4185206162</v>
       </c>
       <c r="AF11" t="n">
         <v>9.778547015393448e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>267173.466749509</v>
+        <v>364453.5954197177</v>
       </c>
     </row>
   </sheetData>
